--- a/The Rurik Empire/docs/empires.xlsx
+++ b/The Rurik Empire/docs/empires.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1718569593" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1718569593" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1718569593" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1718569593"/>
+      <pm:revision xmlns:pm="smNativeData" day="1718629415" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1718629415" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1718629415" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1718629415"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>name_empire</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>population</t>
+  </si>
+  <si>
+    <t>capital</t>
   </si>
   <si>
     <t>Киевская Русь</t>
@@ -42,7 +45,7 @@
 и финно-угорских племён, под властью князей династии Рюриковичей.</t>
   </si>
   <si>
-    <t>7.500</t>
+    <t>5.400</t>
   </si>
   <si>
     <t>Хазарский Каганат</t>
@@ -57,7 +60,7 @@
     <t>Волжская Булгария</t>
   </si>
   <si>
-    <t>Историческое государство в Среднем Поволжье и бассейне Камы, существовавшее с X по XIII век.</t>
+    <t>Историческое государство в Среднем Поволжье и бассейне Камы, существовавшее с X по XIII век. Волжская Булгария была населена пришедшими несколькими волнами (во 2-й половина VII века и позднее) после распада Великой Булгарии булгарскими и другими тюрко-язычными племенами, а также прикамскими финно-уграми.</t>
   </si>
   <si>
     <t>2.000</t>
@@ -66,10 +69,30 @@
     <t>Первое Болгарское Царство</t>
   </si>
   <si>
+    <t>Название Болгарского государства с 681 по 1018 год. 
+Образовано булгарскими, славянскими и фракийскими племенами под предводительством Аспаруха. В период наибольшего расцвета охватывало бо́льшую часть Балканского полуострова.</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
     <t>Великая Моравия</t>
   </si>
   <si>
+    <t xml:space="preserve">Раннефеодально славянское государство, существовавшее в 822—907 годах на низменности Среднего Дуная. 
+В IX столетии князь Ростислав основал самостоятельное государство Великая Моравия, заключавшее северную Венгрию. Великая Моравия в период наибольшего могущества включало в себя территории современных Венгрии, Словакии, Чехии, а также Малую Польшу, часть Украины и исторической области Силезия. </t>
+  </si>
+  <si>
+    <t>3.500</t>
+  </si>
+  <si>
     <t>Рашка</t>
+  </si>
+  <si>
+    <t>Средневековое сербское государство (великая жупа) и одноимённая область. До XI века Рашка как географическая область была частью Сербского княжества.</t>
+  </si>
+  <si>
+    <t>2.500</t>
   </si>
   <si>
     <t>Хорватское Королевство</t>
@@ -128,7 +151,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718569593" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718629415" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -144,7 +167,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718569593" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718629415" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -166,7 +189,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1718569593" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1718629415" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -188,7 +211,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718569593"/>
+          <pm:border xmlns:pm="smNativeData" id="1718629415"/>
         </ext>
       </extLst>
     </border>
@@ -207,7 +230,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718569593"/>
+          <pm:border xmlns:pm="smNativeData" id="1718629415"/>
         </ext>
       </extLst>
     </border>
@@ -227,7 +250,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1718569593" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1718629415" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -491,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -504,7 +527,7 @@
     <col min="3" max="3" width="9.491071" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,115 +537,136 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1718569593" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1718629415" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -631,16 +675,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1718569593" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1718569593" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718569593" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718569593" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1718629415" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1718629415" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718629415" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718629415" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718569593" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718629415" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/The Rurik Empire/docs/empires.xlsx
+++ b/The Rurik Empire/docs/empires.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1718629415" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1718629415" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1718629415" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1718629415"/>
+      <pm:revision xmlns:pm="smNativeData" day="1718634966" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1718634966" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1718634966" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1718634966"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>name_empire</t>
   </si>
@@ -45,7 +45,10 @@
 и финно-угорских племён, под властью князей династии Рюриковичей.</t>
   </si>
   <si>
-    <t>5.400</t>
+    <t>4.900</t>
+  </si>
+  <si>
+    <t>Ладога</t>
   </si>
   <si>
     <t>Хазарский Каганат</t>
@@ -57,6 +60,9 @@
     <t>8.000</t>
   </si>
   <si>
+    <t>Итиль</t>
+  </si>
+  <si>
     <t>Волжская Булгария</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
   </si>
   <si>
     <t>2.000</t>
+  </si>
+  <si>
+    <t>Болгар</t>
   </si>
   <si>
     <t>Первое Болгарское Царство</t>
@@ -76,6 +85,9 @@
     <t>1.000</t>
   </si>
   <si>
+    <t>Велики-Преслав</t>
+  </si>
+  <si>
     <t>Великая Моравия</t>
   </si>
   <si>
@@ -86,6 +98,9 @@
     <t>3.500</t>
   </si>
   <si>
+    <t>Велеград</t>
+  </si>
+  <si>
     <t>Рашка</t>
   </si>
   <si>
@@ -95,37 +110,139 @@
     <t>2.500</t>
   </si>
   <si>
+    <t>Стари-Рас</t>
+  </si>
+  <si>
     <t>Хорватское Королевство</t>
   </si>
   <si>
+    <t>Независимое государство приблизительно с 925 года по 1102 год. Существовавшее с середины IX века княжество Хорватия стало королевством после принятия в 925 году Томиславом I титула короля. Правителями хорватского королевства были в основном представители династии Трпимировичей.</t>
+  </si>
+  <si>
+    <t>4.000</t>
+  </si>
+  <si>
+    <t>Биоград-на-Мору</t>
+  </si>
+  <si>
     <t>Византийская Империя</t>
   </si>
   <si>
+    <t>Продолжение Римской империи в её восточных провинциях в период поздней античности и средневековья, когда столицей Восточной Римской империи был Константинополь.</t>
+  </si>
+  <si>
+    <t>15.000</t>
+  </si>
+  <si>
+    <t>Константинополь</t>
+  </si>
+  <si>
     <t>Китайская Империя Тан</t>
   </si>
   <si>
+    <t>Китайская империя, основанная Ли Юанем. Его сын, император Ли Шиминь, после окончательного подавления крестьянских восстаний и сепаратистских феодальных сил начал проводить прогрессивную политику. Танский период стал эпохой расцвета средневекового Китая, именно эпоха Тан традиционно считается в Китае периодом наивысшего могущества страны, когда она опережала в развитии все современные ей страны мира.</t>
+  </si>
+  <si>
+    <t>80.000</t>
+  </si>
+  <si>
+    <t>Чанъань</t>
+  </si>
+  <si>
     <t>Силла</t>
   </si>
   <si>
+    <t xml:space="preserve">Одно из Трёх корейских государств. Легендарным годом основания является 57 год до н. э., хотя первый подтверждённый правитель Нэмуль относится к 4 веку. Силла последовательно захватило Кая в 562 году и два других корейских государства, Пэкче в 660 году и Когурё в 668. </t>
+  </si>
+  <si>
+    <t>13.000</t>
+  </si>
+  <si>
+    <t>Кёнджу</t>
+  </si>
+  <si>
     <t>Япония</t>
   </si>
   <si>
-    <t>Халифат Аббасидов</t>
+    <t>Исто́рия Япо́нии охватывает период от 40 тысячелетия до н. э. до наших дней. Первые письменные упоминания о древней Японии содержатся в китайских исторических хрониках «Двадцать четыре истории» I века. Однако согласно результатам археологических исследований, Японский архипелаг был заселён людьми в период позднего палеолита.</t>
+  </si>
+  <si>
+    <t>17.000</t>
+  </si>
+  <si>
+    <t>Хэйан-кё</t>
+  </si>
+  <si>
+    <t>Аббасидский Халифат</t>
+  </si>
+  <si>
+    <t>Феодальное теократическое государство, существовавшее с 750 по 945 и с 1194 по 1258 год, с правящей династией Аббасидов. В состав Багдадского халифата входили территории современных арабских стран Азии, часть Средней Азии, Египет, Иран, Северная Африка и Пакистан. Аббасидская империя была одной из крупнейших империй в истории человечества</t>
+  </si>
+  <si>
+    <t>22.000</t>
+  </si>
+  <si>
+    <t>Самарра</t>
   </si>
   <si>
     <t>Восточно-Франкское Королевство</t>
   </si>
   <si>
+    <t>Государство, созданное в результате Верденского раздела 843 года Франкской империи в качестве наследственного владения Людовика II Немецкого и включавшее территории к востоку от Рейна и к северу от Альп. Восточная Франкия была предшественником Священной Римской империи и современной Германии.</t>
+  </si>
+  <si>
+    <t>4.200</t>
+  </si>
+  <si>
+    <t>Франкфурт-на-Майне</t>
+  </si>
+  <si>
     <t>Лотарингия</t>
   </si>
   <si>
+    <t>Герцогство, располагавшееся на северо-востоке современной Франции. До 1766 года входило в состав Священной Римской империи. В настоящее время территория Лотарингии вместе с некоторыми другими землями входит в состав французского региона Гранд-Эст, Германии, Люксембурга, Бельгии и Нидерландов.</t>
+  </si>
+  <si>
+    <t>2.700</t>
+  </si>
+  <si>
+    <t>Нанси</t>
+  </si>
+  <si>
     <t>Западно-Франкское Королевство</t>
   </si>
   <si>
+    <t>Государство на территории нынешней Франции, образовавшееся в результате раздела Франкской империи.</t>
+  </si>
+  <si>
+    <t>3.900</t>
+  </si>
+  <si>
+    <t>Реймс</t>
+  </si>
+  <si>
     <t>Прованс</t>
   </si>
   <si>
+    <t>Одно из государств, образовавшихся в процессе распада империи Карла Великого. Королевство включало юго-восточную часть современной Франции: Прованс, Дофинэ, Конта-Венессен, Савойю, а также некоторые территории на правом берегу Роны (Лионне и Виваре).</t>
+  </si>
+  <si>
+    <t>1.400</t>
+  </si>
+  <si>
+    <t>Арль</t>
+  </si>
+  <si>
     <t>Шотландия</t>
+  </si>
+  <si>
+    <t>Древнейшие следы присутствия человека на территории современной Шотландии относятся к 3-му тысячелетию до н. э. Вероятно, с 8–7 веков до н. э. началась миграция на территорию Шотландии кельтских племён. В 9 в. сложилось объединённое королевство пиктов и скоттов – Алба.</t>
+  </si>
+  <si>
+    <t>0.900</t>
+  </si>
+  <si>
+    <t>Скун</t>
   </si>
 </sst>
 </file>
@@ -151,7 +268,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718629415" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718634966" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -167,7 +284,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718629415" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718634966" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -189,7 +306,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1718629415" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1718634966" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -211,7 +328,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718629415"/>
+          <pm:border xmlns:pm="smNativeData" id="1718634966"/>
         </ext>
       </extLst>
     </border>
@@ -230,7 +347,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718629415"/>
+          <pm:border xmlns:pm="smNativeData" id="1718634966"/>
         </ext>
       </extLst>
     </border>
@@ -250,7 +367,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1718629415" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1718634966" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -516,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -525,6 +642,7 @@
     <col min="1" max="1" width="30.848214" customWidth="1"/>
     <col min="2" max="2" width="95.205357" customWidth="1" style="1"/>
     <col min="3" max="3" width="9.491071" customWidth="1"/>
+    <col min="4" max="4" width="18.883929" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -541,7 +659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -551,122 +669,239 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>68</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1718629415" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1718634966" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -675,16 +910,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1718629415" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1718629415" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718629415" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718629415" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1718634966" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1718634966" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718634966" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718634966" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718629415" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718634966" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/The Rurik Empire/docs/empires.xlsx
+++ b/The Rurik Empire/docs/empires.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="bazun"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\bazGames\The Rurik Empire\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E4815E-A300-4845-A350-0B1C6BD47AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="22260" windowHeight="12643" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1718634966" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>name_empire</t>
   </si>
@@ -243,117 +248,43 @@
   </si>
   <si>
     <t>Скун</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;₽&quot;;\-#,##0\ &quot;₽&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718634966" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718634966" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1718634966" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718634966"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718634966"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -362,10 +293,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1718634966" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
@@ -380,10 +318,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="D5D5D5"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="494949"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="EEECE1"/>
@@ -630,293 +568,330 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.848214" customWidth="1"/>
-    <col min="2" max="2" width="95.205357" customWidth="1" style="1"/>
-    <col min="3" max="3" width="9.491071" customWidth="1"/>
-    <col min="4" max="4" width="18.883929" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="95.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>66</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1718634966" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1718634966" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1718634966" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718634966" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718634966" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1718634966" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">

--- a/The Rurik Empire/docs/empires.xlsx
+++ b/The Rurik Empire/docs/empires.xlsx
@@ -1,34 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="bazun"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\bazGames\The Rurik Empire\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E4815E-A300-4845-A350-0B1C6BD47AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="29040" windowHeight="15720" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1718634966" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1718634966" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1718634966" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1718634966"/>
+      <pm:revision xmlns:pm="smNativeData" day="1718744789" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1718744789" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1718744789" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1718744789"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>name_empire</t>
   </si>
@@ -250,41 +248,274 @@
     <t>Скун</t>
   </si>
   <si>
-    <t>id</t>
+    <t>Бретань</t>
+  </si>
+  <si>
+    <t>Государство, феодальное, монархическое (Герцогство Бретань, в 851–913 — королевство). Образовано на территории современной Франции в результате отделения от Западно-Франкского королевства, в 913 к власти пришли норманны.</t>
+  </si>
+  <si>
+    <t>Ренн</t>
+  </si>
+  <si>
+    <t>Королевство Норвегия</t>
+  </si>
+  <si>
+    <t>Государство монархическое (Королевство Норвегия). Зародилось на территории современной Норвегии в результате объединения отдельных норвежских областей в единое государство.</t>
+  </si>
+  <si>
+    <t>1.100</t>
+  </si>
+  <si>
+    <t>Гвальдснес</t>
+  </si>
+  <si>
+    <t>Папская область</t>
+  </si>
+  <si>
+    <t>Астурия</t>
+  </si>
+  <si>
+    <t>Кордовский Эмират</t>
+  </si>
+  <si>
+    <t>Королевство Италия</t>
+  </si>
+  <si>
+    <t>Нортумбрия</t>
+  </si>
+  <si>
+    <t>Уэссекс</t>
+  </si>
+  <si>
+    <t>Мерсия</t>
+  </si>
+  <si>
+    <t>Данелаг</t>
+  </si>
+  <si>
+    <t>Нижняя Бурундия</t>
+  </si>
+  <si>
+    <t>Верхняя Бурундия</t>
+  </si>
+  <si>
+    <t>Пражское Княжество</t>
+  </si>
+  <si>
+    <t>Империя Ляо</t>
+  </si>
+  <si>
+    <t>Германское Королевство</t>
+  </si>
+  <si>
+    <t>Корё</t>
+  </si>
+  <si>
+    <t>Леон</t>
+  </si>
+  <si>
+    <t>Англия</t>
+  </si>
+  <si>
+    <t>Бургундское Королевство</t>
+  </si>
+  <si>
+    <t>Дания</t>
+  </si>
+  <si>
+    <t>Польша</t>
+  </si>
+  <si>
+    <t>Сун</t>
+  </si>
+  <si>
+    <t>Швеция</t>
+  </si>
+  <si>
+    <t>Священная Римская Империя</t>
+  </si>
+  <si>
+    <t>Венгрия</t>
+  </si>
+  <si>
+    <t>Франция</t>
+  </si>
+  <si>
+    <t>Империя Си Ся</t>
+  </si>
+  <si>
+    <t>Полоцкое Княжество</t>
+  </si>
+  <si>
+    <t>Переяславское Княжество</t>
+  </si>
+  <si>
+    <t>Черниговское Княжество</t>
+  </si>
+  <si>
+    <t>Новгород-Северское Княжество</t>
+  </si>
+  <si>
+    <t>Империя Цзинь</t>
+  </si>
+  <si>
+    <t>Минское Княжество</t>
+  </si>
+  <si>
+    <t>Каракитайское Ханство</t>
+  </si>
+  <si>
+    <t>Кыпчакское Ханство</t>
+  </si>
+  <si>
+    <t>Алания</t>
+  </si>
+  <si>
+    <t>Грузинское Царство</t>
+  </si>
+  <si>
+    <t>Смоленское Княжество</t>
+  </si>
+  <si>
+    <t>Рязанское Княжество</t>
+  </si>
+  <si>
+    <t>Новгородская Республика</t>
+  </si>
+  <si>
+    <t>Португалия</t>
+  </si>
+  <si>
+    <t>Витебское Княжество</t>
+  </si>
+  <si>
+    <t>Владимирское Княжество</t>
+  </si>
+  <si>
+    <t>Волынское Княжество</t>
+  </si>
+  <si>
+    <t>Эрцгерцогство Австрия</t>
+  </si>
+  <si>
+    <t>Кастилия</t>
+  </si>
+  <si>
+    <t>Монгольская Империя</t>
+  </si>
+  <si>
+    <t>Афинское Герцогство</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;₽&quot;;\-#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718744789" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Times New Roman" sz="220" lang="default"/>
+            <pm:ea face="SimSun" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718744789" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1718744789" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1718744789"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1718744789"/>
+        </ext>
+      </extLst>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -293,19 +524,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1718634966" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1718744789" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -318,10 +542,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="D5D5D5"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="494949"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="EEECE1"/>
@@ -568,333 +792,611 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.40"/>
   <cols>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="95.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.857143" customWidth="1"/>
+    <col min="3" max="3" width="95.142857" customWidth="1" style="1"/>
+    <col min="4" max="4" width="9.428571" customWidth="1"/>
+    <col min="5" max="5" width="21.000000" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
         <v>71</v>
       </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1718744789" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1718744789" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1718744789" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718744789" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718744789" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718634966" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718744789" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/The Rurik Empire/docs/empires.xlsx
+++ b/The Rurik Empire/docs/empires.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1718744789" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1718744789" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1718744789" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1718744789"/>
+      <pm:revision xmlns:pm="smNativeData" day="1718785800" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1718785800" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1718785800" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1718785800"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="186">
   <si>
     <t>id</t>
   </si>
@@ -368,43 +368,223 @@
     <t>Кыпчакское Ханство</t>
   </si>
   <si>
-    <t>Алания</t>
+    <t>Смоленское Княжество</t>
+  </si>
+  <si>
+    <t>Рязанское Княжество</t>
+  </si>
+  <si>
+    <t>Новгородская Республика</t>
+  </si>
+  <si>
+    <t>Португалия</t>
+  </si>
+  <si>
+    <t>Витебское Княжество</t>
+  </si>
+  <si>
+    <t>Владимирское Княжество</t>
+  </si>
+  <si>
+    <t>Волынское Княжество</t>
+  </si>
+  <si>
+    <t>Эрцгерцогство Австрия</t>
+  </si>
+  <si>
+    <t>Кастилия</t>
+  </si>
+  <si>
+    <t>Монгольская Империя</t>
+  </si>
+  <si>
+    <t>Афинское Герцогство</t>
+  </si>
+  <si>
+    <t>Второе Болгарское Царство</t>
+  </si>
+  <si>
+    <t>Королевство Чехия</t>
+  </si>
+  <si>
+    <t>Галицко-Волынское Княжество</t>
+  </si>
+  <si>
+    <t>Датская Эстляндия</t>
+  </si>
+  <si>
+    <t>Орден Меченосцев</t>
+  </si>
+  <si>
+    <t>Великое Княжество Литовское</t>
+  </si>
+  <si>
+    <t>Тевтонский Орден</t>
+  </si>
+  <si>
+    <t>Золотая Орда</t>
+  </si>
+  <si>
+    <t>Княжество Уэльс</t>
+  </si>
+  <si>
+    <t>Монгольская Империя Юань</t>
+  </si>
+  <si>
+    <t>Московское Княжество</t>
+  </si>
+  <si>
+    <t>Неополитанское Королевство</t>
+  </si>
+  <si>
+    <t>Королевство Сицилия</t>
+  </si>
+  <si>
+    <t>Княжество Валахия</t>
+  </si>
+  <si>
+    <t>Псковская Республика</t>
+  </si>
+  <si>
+    <t>Османский Эмират</t>
+  </si>
+  <si>
+    <t>Княжество Молдова</t>
+  </si>
+  <si>
+    <t>Сербское Царство</t>
+  </si>
+  <si>
+    <t>Китайская Империя Мин</t>
+  </si>
+  <si>
+    <t>Северная Юань</t>
+  </si>
+  <si>
+    <t>Тырновское Царство</t>
+  </si>
+  <si>
+    <t>Босния</t>
+  </si>
+  <si>
+    <t>Моравская Сербия</t>
+  </si>
+  <si>
+    <t>Зета</t>
+  </si>
+  <si>
+    <t>Область Бранковича</t>
+  </si>
+  <si>
+    <t>Швейцария</t>
+  </si>
+  <si>
+    <t>Чосон</t>
+  </si>
+  <si>
+    <t>Бургундское Герцегство</t>
+  </si>
+  <si>
+    <t>Нижегородско-Суздальское Княжество</t>
+  </si>
+  <si>
+    <t>Сербская Деспотия</t>
+  </si>
+  <si>
+    <t>Миланское Герцегство</t>
+  </si>
+  <si>
+    <t>Королевство Кастилия и Леон</t>
+  </si>
+  <si>
+    <t>Венецианская Республика</t>
+  </si>
+  <si>
+    <t>Казанское Ханство</t>
+  </si>
+  <si>
+    <t>Ливонский Орден</t>
+  </si>
+  <si>
+    <t>Герцеговина</t>
+  </si>
+  <si>
+    <t>Валахия</t>
+  </si>
+  <si>
+    <t>Крымское Ханство</t>
+  </si>
+  <si>
+    <t>Астраханнское Ханство</t>
   </si>
   <si>
     <t>Грузинское Царство</t>
   </si>
   <si>
-    <t>Смоленское Княжество</t>
-  </si>
-  <si>
-    <t>Рязанское Княжество</t>
-  </si>
-  <si>
-    <t>Новгородская Республика</t>
-  </si>
-  <si>
-    <t>Португалия</t>
-  </si>
-  <si>
-    <t>Витебское Княжество</t>
-  </si>
-  <si>
-    <t>Владимирское Княжество</t>
-  </si>
-  <si>
-    <t>Волынское Княжество</t>
-  </si>
-  <si>
-    <t>Эрцгерцогство Австрия</t>
-  </si>
-  <si>
-    <t>Кастилия</t>
-  </si>
-  <si>
-    <t>Монгольская Империя</t>
-  </si>
-  <si>
-    <t>Афинское Герцогство</t>
+    <t>Османская Империя</t>
+  </si>
+  <si>
+    <t>Тюменское Ханство</t>
+  </si>
+  <si>
+    <t>Казахское Ханство</t>
+  </si>
+  <si>
+    <t>Тверское Княжество</t>
+  </si>
+  <si>
+    <t>Арагон</t>
+  </si>
+  <si>
+    <t>Сибирское Ханство</t>
+  </si>
+  <si>
+    <t>Габсбургская Империя</t>
+  </si>
+  <si>
+    <t>Восточно-Венгерское Королевство</t>
+  </si>
+  <si>
+    <t>Ногайская Орда</t>
+  </si>
+  <si>
+    <t>Испания</t>
+  </si>
+  <si>
+    <t>Русское Царство</t>
+  </si>
+  <si>
+    <t>Рюкю</t>
+  </si>
+  <si>
+    <t>Люксембург</t>
+  </si>
+  <si>
+    <t>Королевство Ирландия</t>
+  </si>
+  <si>
+    <t>Шведская Эстляндия</t>
+  </si>
+  <si>
+    <t>Курляндское Епископство</t>
+  </si>
+  <si>
+    <t>Речь Посполитая</t>
+  </si>
+  <si>
+    <t>Трансильвания</t>
+  </si>
+  <si>
+    <t>Испанские Нидерладны</t>
+  </si>
+  <si>
+    <t>Республика Соединенных Провинций</t>
+  </si>
+  <si>
+    <t>Шлезвиг</t>
+  </si>
+  <si>
+    <t>Гольштейн</t>
   </si>
 </sst>
 </file>
@@ -430,7 +610,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718744789" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718785800" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -446,7 +626,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718744789" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718785800" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -468,7 +648,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1718744789" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1718785800" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -490,7 +670,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718744789"/>
+          <pm:border xmlns:pm="smNativeData" id="1718785800"/>
         </ext>
       </extLst>
     </border>
@@ -509,7 +689,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718744789"/>
+          <pm:border xmlns:pm="smNativeData" id="1718785800"/>
         </ext>
       </extLst>
     </border>
@@ -529,7 +709,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1718744789" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1718785800" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -793,15 +973,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
   <cols>
-    <col min="2" max="2" width="30.857143" customWidth="1"/>
+    <col min="2" max="2" width="33.321429" customWidth="1"/>
     <col min="3" max="3" width="95.142857" customWidth="1" style="1"/>
     <col min="4" max="4" width="9.428571" customWidth="1"/>
     <col min="5" max="5" width="21.000000" customWidth="1"/>
@@ -1374,11 +1554,311 @@
         <v>125</v>
       </c>
     </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1718744789" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1718785800" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1387,16 +1867,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1718744789" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1718744789" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718744789" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718744789" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1718785800" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1718785800" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718785800" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718785800" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718744789" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718785800" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/The Rurik Empire/docs/empires.xlsx
+++ b/The Rurik Empire/docs/empires.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1718785800" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1718785800" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1718785800" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1718785800"/>
+      <pm:revision xmlns:pm="smNativeData" day="1718787160" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1718787160" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1718787160" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1718787160"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="196">
   <si>
     <t>id</t>
   </si>
@@ -272,12 +272,41 @@
     <t>Папская область</t>
   </si>
   <si>
+    <t>Теократическое государство, существовавшее в центральной Италии и возглавлявшееся папами ― патриархами Римской Католической церкви.</t>
+  </si>
+  <si>
+    <t>0.055</t>
+  </si>
+  <si>
+    <t>Рим</t>
+  </si>
+  <si>
     <t>Астурия</t>
   </si>
   <si>
+    <t>Автономное сообщество и провинция на севере Испании. Королевство было известно как Астурия до 924 года, затем оно стало называться Королевство Леон.
+Королевство Леон, в свою очередь, в 1230 году было объединено в Королевство Кастилия и Леон.</t>
+  </si>
+  <si>
+    <t>0.070</t>
+  </si>
+  <si>
+    <t>Овьедо</t>
+  </si>
+  <si>
     <t>Кордовский Эмират</t>
   </si>
   <si>
+    <t>Исламское государство на территории Иберийского полуострова, в средневековой Испании (756—929).
+Государство основано потомком Омейядов Абд ар-Рахманом I, который в 756 году принял титул эмира.</t>
+  </si>
+  <si>
+    <t>0.880</t>
+  </si>
+  <si>
+    <t>Кордова</t>
+  </si>
+  <si>
     <t>Королевство Италия</t>
   </si>
   <si>
@@ -585,6 +614,9 @@
   </si>
   <si>
     <t>Гольштейн</t>
+  </si>
+  <si>
+    <t>Кордовский Халифат</t>
   </si>
 </sst>
 </file>
@@ -610,7 +642,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718785800" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718787160" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -626,7 +658,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718785800" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718787160" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -648,7 +680,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1718785800" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1718787160" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -670,7 +702,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718785800"/>
+          <pm:border xmlns:pm="smNativeData" id="1718787160"/>
         </ext>
       </extLst>
     </border>
@@ -689,7 +721,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718785800"/>
+          <pm:border xmlns:pm="smNativeData" id="1718787160"/>
         </ext>
       </extLst>
     </border>
@@ -709,7 +741,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1718785800" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1718787160" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -973,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -1310,7 +1342,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="1:5">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
       <c r="B20" t="s">
         <v>76</v>
       </c>
@@ -1324,541 +1359,894 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:5">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
       <c r="B21" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
+      <c r="C21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
       <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="n">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+      <c r="B82" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="n">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+      <c r="B83" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="n">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
+      <c r="B84" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="n">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
+      <c r="B85" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="n">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
+      <c r="B86" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="n">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
+      <c r="B87" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="n">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
+      <c r="B88" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="n">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
+      <c r="B89" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="n">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
+      <c r="B90" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="n">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
+      <c r="B91" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="n">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
+      <c r="B92" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="n">
         <v>92</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
+      <c r="B93" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="n">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
+      <c r="B94" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="n">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
+      <c r="B95" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="n">
         <v>95</v>
       </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
+      <c r="B96" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="n">
         <v>96</v>
       </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
+      <c r="B97" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="n">
         <v>97</v>
       </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
+      <c r="B98" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="n">
         <v>98</v>
       </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
+      <c r="B99" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="n">
         <v>99</v>
       </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+      <c r="B100" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
+      <c r="B101" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="n">
         <v>101</v>
       </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
+      <c r="B102" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="n">
         <v>102</v>
       </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
+      <c r="B103" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="n">
         <v>103</v>
       </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
+      <c r="B104" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="n">
         <v>104</v>
       </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
+      <c r="B105" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="n">
         <v>105</v>
       </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
+      <c r="B106" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="n">
         <v>106</v>
       </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
+      <c r="B107" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="n">
         <v>107</v>
       </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
+      <c r="B108" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="n">
         <v>108</v>
       </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
+      <c r="B109" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="n">
         <v>109</v>
       </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
+      <c r="B110" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="n">
         <v>110</v>
       </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
+      <c r="B111" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="n">
         <v>111</v>
       </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
+      <c r="B112" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="n">
         <v>112</v>
       </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
+      <c r="B113" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="n">
         <v>113</v>
       </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
+      <c r="B114" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="n">
         <v>114</v>
       </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
+      <c r="B115" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="n">
         <v>115</v>
       </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
+      <c r="B116" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="n">
         <v>116</v>
       </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" t="s">
+      <c r="B117" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="n">
         <v>117</v>
       </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
+      <c r="B118" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="n">
         <v>118</v>
       </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
+      <c r="B119" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="n">
         <v>119</v>
       </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
+      <c r="B120" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="n">
         <v>120</v>
       </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" t="s">
+      <c r="B121" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="n">
         <v>121</v>
       </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
+      <c r="B122" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="n">
         <v>122</v>
       </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
+      <c r="B123" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="n">
         <v>123</v>
       </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
+      <c r="B124" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="n">
         <v>124</v>
       </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
+      <c r="B125" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="n">
         <v>125</v>
       </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" t="s">
+      <c r="B126" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="n">
         <v>126</v>
       </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" t="s">
-        <v>185</v>
+      <c r="B127" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1718785800" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1718787160" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1867,16 +2255,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1718785800" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1718785800" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718785800" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718785800" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1718787160" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1718787160" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718787160" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718787160" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718785800" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718787160" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/The Rurik Empire/docs/empires.xlsx
+++ b/The Rurik Empire/docs/empires.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1718787160" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1718787160" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1718787160" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1718787160"/>
+      <pm:revision xmlns:pm="smNativeData" day="1718819098" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1718819098" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1718819098" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1718819098"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="226">
   <si>
     <t>id</t>
   </si>
@@ -310,31 +310,123 @@
     <t>Королевство Италия</t>
   </si>
   <si>
-    <t>Нортумбрия</t>
-  </si>
-  <si>
-    <t>Уэссекс</t>
-  </si>
-  <si>
-    <t>Мерсия</t>
+    <t>Государство, феодальное, монархическое. Зародилось на терр. совр. Италии в результате отделения от Восточно-Франкского Королевства. Вошло в состав Германского Королевства.</t>
+  </si>
+  <si>
+    <t>1.600</t>
+  </si>
+  <si>
+    <t>Павия</t>
+  </si>
+  <si>
+    <t>Королевство Нортумбрия</t>
+  </si>
+  <si>
+    <t>Одно из семи королевств так называемой англосаксонской гептархии, которое возникло на севере Британии.
+Нортумбрия — это англосаксонское государство, образовавшееся в результате объединения в 655 году Берниции и Дейры. После объединения оно просуществовало вплоть до 867 года, когда было захвачено викингами.</t>
+  </si>
+  <si>
+    <t>0.950</t>
+  </si>
+  <si>
+    <t>Бамборо</t>
+  </si>
+  <si>
+    <t>Королевство Уэссекс</t>
+  </si>
+  <si>
+    <t>Англосаксонское королевство на юге Великобритании, одно из семи королевств так называемой англосаксонской гептархии, основанное саксами в начале VI века в ходе англосаксонского завоевания Британии, и ставшее впоследствии частью Англии.</t>
+  </si>
+  <si>
+    <t>0.870</t>
+  </si>
+  <si>
+    <t>Винчестер</t>
+  </si>
+  <si>
+    <t>Королевство Мерсия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одно из семи королевств так называемой англосаксонской гептархии. 
+Располагалось в долине реки Трент на западе центральной Англии </t>
+  </si>
+  <si>
+    <t>0.970</t>
+  </si>
+  <si>
+    <t>Тамуэрт</t>
   </si>
   <si>
     <t>Данелаг</t>
   </si>
   <si>
-    <t>Нижняя Бурундия</t>
-  </si>
-  <si>
-    <t>Верхняя Бурундия</t>
+    <t>Территория в северо-восточной части Англии, отличавшаяся особыми правовой и социальной системами, унаследованными от норвежских и датских викингов, завоевавших эти земли в IX веке.</t>
+  </si>
+  <si>
+    <t>1.070</t>
+  </si>
+  <si>
+    <t>Данло</t>
+  </si>
+  <si>
+    <t>Королевство Нижняя Бургундия</t>
+  </si>
+  <si>
+    <t>Одно из государств, образовавшихся в процессе распада империи Карла Великого. Королевство включало юго-восточную часть современной Франции.</t>
+  </si>
+  <si>
+    <t>0.700</t>
+  </si>
+  <si>
+    <t>Вьенн</t>
+  </si>
+  <si>
+    <t>Королевство Верхняя Бургундия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одно из государств, образованных после распада империи Карла Великого. Королевство включало территорию западной части современной Швейцарии, Франш-Конте и Шабле. </t>
+  </si>
+  <si>
+    <t>0.820</t>
+  </si>
+  <si>
+    <t>Женева</t>
   </si>
   <si>
     <t>Пражское Княжество</t>
   </si>
   <si>
+    <t>Западнославянское государство X—XII веков, располагавшееся на месте современной Чехии. Правящая династия — Пржемысловичи.</t>
+  </si>
+  <si>
+    <t>0.315</t>
+  </si>
+  <si>
+    <t>Прага</t>
+  </si>
+  <si>
     <t>Империя Ляо</t>
   </si>
   <si>
+    <t>Государство киданей (монголоязычных кочевников), которое занимало просторы Северо-Восточного Китая с момента основания киданьской государственности племенным вождём Абаоцзи</t>
+  </si>
+  <si>
+    <t>3.800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Шанцзин</t>
+  </si>
+  <si>
     <t>Германское Королевство</t>
+  </si>
+  <si>
+    <t>Государство, феодальное, монархическое. Зародилось на терр. совр. Германии в результате переименования Восточно-Франкского Королевства.</t>
+  </si>
+  <si>
+    <t>5.000</t>
+  </si>
+  <si>
+    <t>Регенсбург</t>
   </si>
   <si>
     <t>Корё</t>
@@ -642,7 +734,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718787160" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718819098" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -658,7 +750,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718787160" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718819098" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -680,7 +772,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1718787160" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1718819098" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -702,7 +794,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718787160"/>
+          <pm:border xmlns:pm="smNativeData" id="1718819098"/>
         </ext>
       </extLst>
     </border>
@@ -721,7 +813,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718787160"/>
+          <pm:border xmlns:pm="smNativeData" id="1718819098"/>
         </ext>
       </extLst>
     </border>
@@ -741,7 +833,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1718787160" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1718819098" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -1008,7 +1100,7 @@
   <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -1410,84 +1502,174 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:5">
       <c r="A24" t="n">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="n">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>96</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="n">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>100</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="n">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>104</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="n">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>108</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="n">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>112</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="n">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>116</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="n">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>120</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="n">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>124</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="n">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>128</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1495,7 +1677,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1503,7 +1685,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1511,7 +1693,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1519,7 +1701,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1527,7 +1709,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1535,7 +1717,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1543,7 +1725,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1551,7 +1733,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1559,7 +1741,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1567,7 +1749,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1575,7 +1757,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1583,7 +1765,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1591,7 +1773,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1599,7 +1781,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1607,7 +1789,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1615,7 +1797,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1623,7 +1805,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1631,7 +1813,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1639,7 +1821,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1647,7 +1829,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1655,7 +1837,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1663,7 +1845,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1671,7 +1853,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1679,7 +1861,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1687,7 +1869,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1695,7 +1877,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1703,7 +1885,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1711,7 +1893,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1719,7 +1901,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1727,7 +1909,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1735,7 +1917,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1743,7 +1925,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1751,7 +1933,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1759,7 +1941,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1767,7 +1949,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1775,7 +1957,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1783,7 +1965,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1791,7 +1973,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1799,7 +1981,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1807,7 +1989,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1815,7 +1997,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1823,7 +2005,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1831,7 +2013,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1839,7 +2021,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1847,7 +2029,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1855,7 +2037,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1863,7 +2045,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1871,7 +2053,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1879,7 +2061,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1887,7 +2069,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1895,7 +2077,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1903,7 +2085,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1911,7 +2093,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1919,7 +2101,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1927,7 +2109,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1935,7 +2117,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1943,7 +2125,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1951,7 +2133,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1959,7 +2141,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1967,7 +2149,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1975,7 +2157,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1983,7 +2165,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1991,7 +2173,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1999,7 +2181,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2007,7 +2189,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2015,7 +2197,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2023,7 +2205,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2031,7 +2213,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2039,7 +2221,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2047,7 +2229,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2055,7 +2237,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2063,7 +2245,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2071,7 +2253,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2079,7 +2261,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2087,7 +2269,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2095,7 +2277,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2103,7 +2285,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2111,7 +2293,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2119,7 +2301,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2127,7 +2309,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2135,7 +2317,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2143,7 +2325,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2151,7 +2333,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2159,7 +2341,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2167,7 +2349,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2175,7 +2357,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2183,7 +2365,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2191,7 +2373,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2199,7 +2381,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2207,7 +2389,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2215,7 +2397,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2223,7 +2405,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2231,7 +2413,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2239,14 +2421,14 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1718787160" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1718819098" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2255,16 +2437,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1718787160" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1718787160" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718787160" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718787160" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1718819098" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1718819098" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718819098" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718819098" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718787160" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718819098" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/The Rurik Empire/docs/empires.xlsx
+++ b/The Rurik Empire/docs/empires.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1718819098" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1718819098" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1718819098" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1718819098"/>
+      <pm:revision xmlns:pm="smNativeData" day="1718825997" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1718825997" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1718825997" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1718825997"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="256">
   <si>
     <t>id</t>
   </si>
@@ -275,7 +275,7 @@
     <t>Теократическое государство, существовавшее в центральной Италии и возглавлявшееся папами ― патриархами Римской Католической церкви.</t>
   </si>
   <si>
-    <t>0.055</t>
+    <t>0.065</t>
   </si>
   <si>
     <t>Рим</t>
@@ -288,7 +288,7 @@
 Королевство Леон, в свою очередь, в 1230 году было объединено в Королевство Кастилия и Леон.</t>
   </si>
   <si>
-    <t>0.070</t>
+    <t>0.080</t>
   </si>
   <si>
     <t>Овьедо</t>
@@ -432,34 +432,125 @@
     <t>Корё</t>
   </si>
   <si>
+    <t>Государство на Корейском полуострове, появившееся после падения государства Силла в 935 году и существовавшее до воцарения династии Чосон в 1392 году.</t>
+  </si>
+  <si>
+    <t>4.940</t>
+  </si>
+  <si>
+    <t>Кэгён</t>
+  </si>
+  <si>
+    <t>Королевство Леон</t>
+  </si>
+  <si>
+    <t>Средневековое королевство в северо-западной части Пиренейского полуострова.</t>
+  </si>
+  <si>
+    <t>2.220</t>
+  </si>
+  <si>
     <t>Леон</t>
   </si>
   <si>
-    <t>Англия</t>
+    <t>Королевство Англия</t>
+  </si>
+  <si>
+    <t>Государство в Западной Европе, занимавшее южную часть острова Великобритания, известное с 927 года. После объединения с королевством Шотландия в 1707 году трансформировалось в королевство Великобритания.</t>
+  </si>
+  <si>
+    <t>4.345</t>
   </si>
   <si>
     <t>Бургундское Королевство</t>
   </si>
   <si>
-    <t>Дания</t>
+    <t>Возникло после объединения в 933 году королевств Верхней и Нижней Бургундии. В 1032—1034 годах государство после смерти бездетного короля Рудольфа III и последовавшей за ней войны за Бургундское наследство вошло в состав Священной Римской империи в качестве третьего королевства, наряду с Германией и Италией.</t>
+  </si>
+  <si>
+    <t>1.780</t>
+  </si>
+  <si>
+    <t>Королевство Дания</t>
+  </si>
+  <si>
+    <t>Государство монархическое. Зародилось на территории современной Дании в результате слияния отдельных племенных групп в одно территориальное государство.</t>
+  </si>
+  <si>
+    <t>1.270</t>
+  </si>
+  <si>
+    <t>Копенгаген</t>
   </si>
   <si>
     <t>Польша</t>
   </si>
   <si>
-    <t>Сун</t>
-  </si>
-  <si>
-    <t>Швеция</t>
+    <t>В 877 году после завоевания Малой Польши Великой Моравией центром формирования польского государства осталась Великая Польша.</t>
+  </si>
+  <si>
+    <t>3.650</t>
+  </si>
+  <si>
+    <t>Гнезно</t>
+  </si>
+  <si>
+    <t>Империя Сун</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Государство в Китае, существовавшее с 960 по 1279 год. Правящая династия — Чжао, по фамилии рода государей. Основание империи положило конец раздробленности Китая, продолжавшейся со времени падения империи Тан в 907 году. </t>
+  </si>
+  <si>
+    <t>100.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Бяньлян</t>
+  </si>
+  <si>
+    <t>Королевство Швеция</t>
+  </si>
+  <si>
+    <t>Государство монархическое. Зародилось на территории современной Швеции в результате объединения племен свеев и гетов родом Инглингов.</t>
+  </si>
+  <si>
+    <t>1.940</t>
+  </si>
+  <si>
+    <t>Упсала</t>
   </si>
   <si>
     <t>Священная Римская Империя</t>
   </si>
   <si>
-    <t>Венгрия</t>
-  </si>
-  <si>
-    <t>Франция</t>
+    <t>Надгосударственный союз немецких, итальянских, балканских, франкских и западнославянских государств и народов, существовавший на протяжении 844 лет.</t>
+  </si>
+  <si>
+    <t>18.860</t>
+  </si>
+  <si>
+    <t>Ахен</t>
+  </si>
+  <si>
+    <t>Королевство Венгрия</t>
+  </si>
+  <si>
+    <t>Зародилось на терр. совр. Венгрии в результате нашествия венгерских племен и образования Королевства Венгрия.</t>
+  </si>
+  <si>
+    <t>4.680</t>
+  </si>
+  <si>
+    <t>Эстергом</t>
+  </si>
+  <si>
+    <t>Королевство Франция</t>
+  </si>
+  <si>
+    <t>Государство (королевство) в Западной Европе, предшественник современной Французской республики.
+Французское королевство одно из самых мощных государств в Западной Европе, великая держава со времён позднего средневековья и Столетней войны. Была также ранней колониальной державой, со значительными владениями в Северной Америке.</t>
+  </si>
+  <si>
+    <t>Париж</t>
   </si>
   <si>
     <t>Империя Си Ся</t>
@@ -734,7 +825,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718819098" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718825997" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -750,7 +841,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718819098" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718825997" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -772,7 +863,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1718819098" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1718825997" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -794,7 +885,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718819098"/>
+          <pm:border xmlns:pm="smNativeData" id="1718825997"/>
         </ext>
       </extLst>
     </border>
@@ -813,7 +904,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718819098"/>
+          <pm:border xmlns:pm="smNativeData" id="1718825997"/>
         </ext>
       </extLst>
     </border>
@@ -833,7 +924,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1718819098" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1718825997" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -1099,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -1672,92 +1763,188 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:5">
       <c r="A34" t="n">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="n">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>136</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="n">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>140</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="n">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>143</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="n">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>146</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="n">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>150</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="n">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>154</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="n">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>158</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="n">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>162</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="n">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>166</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="n">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>170</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1765,7 +1952,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1773,7 +1960,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1781,7 +1968,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1789,7 +1976,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1797,7 +1984,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1805,7 +1992,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1813,7 +2000,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1821,7 +2008,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1829,7 +2016,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1837,7 +2024,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1845,7 +2032,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1853,7 +2040,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1861,7 +2048,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1869,7 +2056,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1877,7 +2064,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1885,7 +2072,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1893,7 +2080,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1901,7 +2088,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1909,7 +2096,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1917,7 +2104,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1925,7 +2112,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1933,7 +2120,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1941,7 +2128,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1949,7 +2136,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1957,7 +2144,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1965,7 +2152,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1973,7 +2160,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1981,7 +2168,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1989,7 +2176,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1997,7 +2184,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2005,7 +2192,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2013,7 +2200,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2021,7 +2208,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2029,7 +2216,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2037,7 +2224,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2045,7 +2232,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2053,7 +2240,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2061,7 +2248,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2069,7 +2256,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2077,7 +2264,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2085,7 +2272,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2093,7 +2280,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2101,7 +2288,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2109,7 +2296,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2117,7 +2304,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2125,7 +2312,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2133,7 +2320,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2141,7 +2328,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2149,7 +2336,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2157,7 +2344,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2165,7 +2352,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2173,7 +2360,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2181,7 +2368,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2189,7 +2376,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2197,7 +2384,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2205,7 +2392,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2213,7 +2400,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2221,7 +2408,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2229,7 +2416,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2237,7 +2424,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2245,7 +2432,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2253,7 +2440,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2261,7 +2448,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2269,7 +2456,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2277,7 +2464,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2285,7 +2472,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2293,7 +2480,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2301,7 +2488,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2309,7 +2496,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2317,7 +2504,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2325,7 +2512,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2333,7 +2520,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2341,7 +2528,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2349,7 +2536,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2357,7 +2544,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2365,7 +2552,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2373,7 +2560,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2381,7 +2568,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2389,7 +2576,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2397,7 +2584,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2405,7 +2592,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2413,7 +2600,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2421,14 +2608,14 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1718819098" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1718825997" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2437,16 +2624,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1718819098" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1718819098" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718819098" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718819098" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1718825997" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1718825997" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718825997" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718825997" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718819098" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718825997" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/The Rurik Empire/docs/empires.xlsx
+++ b/The Rurik Empire/docs/empires.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1718825997" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1718825997" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1718825997" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1718825997"/>
+      <pm:revision xmlns:pm="smNativeData" day="1718832216" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1718832216" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1718832216" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1718832216"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="393">
   <si>
     <t>id</t>
   </si>
@@ -414,7 +414,7 @@
     <t>3.800</t>
   </si>
   <si>
-    <t xml:space="preserve"> Шанцзин</t>
+    <t>Шанцзин</t>
   </si>
   <si>
     <t>Германское Королевство</t>
@@ -504,7 +504,7 @@
     <t>100.000</t>
   </si>
   <si>
-    <t xml:space="preserve"> Бяньлян</t>
+    <t>Бяньлян</t>
   </si>
   <si>
     <t>Королевство Швеция</t>
@@ -550,148 +550,560 @@
 Французское королевство одно из самых мощных государств в Западной Европе, великая держава со времён позднего средневековья и Столетней войны. Была также ранней колониальной державой, со значительными владениями в Северной Америке.</t>
   </si>
   <si>
+    <t>9.213</t>
+  </si>
+  <si>
     <t>Париж</t>
   </si>
   <si>
     <t>Империя Си Ся</t>
   </si>
   <si>
+    <t>Государство тангутов, существовавшее в 1038—1227 годах к северо-западу от китайского царства Сун и, позднее, чжурчжэньского Цзинь на территории современных китайских провинций Шэньси и Ганьсу. Контролировало восточный отрезок Великого шёлкового пути.</t>
+  </si>
+  <si>
+    <t>3.000</t>
+  </si>
+  <si>
+    <t>Иньчуань</t>
+  </si>
+  <si>
     <t>Полоцкое Княжество</t>
   </si>
   <si>
+    <t>Древнерусское княжество, выделившееся из состава Киевской Руси, а позже ставшее независимым. С XIV века княжество в составе Великого княжества Литовского и Русского.</t>
+  </si>
+  <si>
+    <t>1.120</t>
+  </si>
+  <si>
+    <t>Полоцк</t>
+  </si>
+  <si>
     <t>Переяславское Княжество</t>
   </si>
   <si>
+    <t xml:space="preserve">Русское княжество XI—XIV веков, располагавшееся на границе со степью на левом берегу Днепра. Княжество было населено северянами, полянами и, частично, уличами. </t>
+  </si>
+  <si>
+    <t>1.205</t>
+  </si>
+  <si>
+    <t>Переяславль</t>
+  </si>
+  <si>
     <t>Черниговское Княжество</t>
   </si>
   <si>
+    <t xml:space="preserve">Одно из наиболее крупных и мощных государственных образований на Руси в XI—XIII веках.
+Бо́льшая часть Черниговского княжества располагалась на левом берегу Днепра в бассейне рек Десна и Сейм. Княжество было населено северянами, радимичами, а также вятичами и частично полянами. </t>
+  </si>
+  <si>
+    <t>1.860</t>
+  </si>
+  <si>
+    <t>Чернигов</t>
+  </si>
+  <si>
     <t>Новгород-Северское Княжество</t>
   </si>
   <si>
+    <t>Русское княжество, располагавшееся в бассейне средней Десны и её правых притоков: Сейма и др.</t>
+  </si>
+  <si>
+    <t>1.297</t>
+  </si>
+  <si>
+    <t>Новгород-Северский</t>
+  </si>
+  <si>
     <t>Империя Цзинь</t>
   </si>
   <si>
+    <t>Чжурчжэньское государство, существовавшее на территории северного Китая и нынешнего Дальнего Востока России в XII—XIII вв. Основателем государства Цзинь был Агуда из клана Ваньянь, территория влияния которого изначально ограничивалась бассейном реки Амур.</t>
+  </si>
+  <si>
+    <t>52.630</t>
+  </si>
+  <si>
+    <t>Хуэйнинфу</t>
+  </si>
+  <si>
     <t>Минское Княжество</t>
   </si>
   <si>
+    <t>Удельное княжество с центром в городе Минск (Минеск), существовавшее с 1101 года до начала XIV века.</t>
+  </si>
+  <si>
+    <t>1.186</t>
+  </si>
+  <si>
+    <t>Меньск</t>
+  </si>
+  <si>
     <t>Каракитайское Ханство</t>
   </si>
   <si>
+    <t>Средневековое феодальное государство, существовавшее в Средней и Центральной Азии в 1124—1218 годах. Было основано киданьским принцем Елюем Даши в 1124 году после падения империи Ляо.</t>
+  </si>
+  <si>
+    <t>8.450</t>
+  </si>
+  <si>
+    <t>Баласагун</t>
+  </si>
+  <si>
     <t>Кыпчакское Ханство</t>
   </si>
   <si>
+    <t>Раннее государство, на территории современного Казахстана. В XI в. на территории современного Казахстана появляется новое мощное государство кочевых тюркоязычных племён — Кыпчакское</t>
+  </si>
+  <si>
+    <t>7.689</t>
+  </si>
+  <si>
+    <t>Сыгнак</t>
+  </si>
+  <si>
     <t>Смоленское Княжество</t>
   </si>
   <si>
+    <t>Русское княжество в верховьях рек Днепр, Волга и Западная Двина в XII—XIV веках. Путь из варяг в греки проходил через княжество и был важным источником дохода его правителей.</t>
+  </si>
+  <si>
+    <t>1.564</t>
+  </si>
+  <si>
+    <t>Смоленск</t>
+  </si>
+  <si>
     <t>Рязанское Княжество</t>
   </si>
   <si>
+    <t>Средневековое русское феодальное государство, существовавшее с XII по начало XVI века на Средней Оке.</t>
+  </si>
+  <si>
+    <t>1.312</t>
+  </si>
+  <si>
+    <t>Рязань</t>
+  </si>
+  <si>
     <t>Новгородская Республика</t>
   </si>
   <si>
-    <t>Португалия</t>
+    <t xml:space="preserve">Севернорусское средневековое государство, существовавшее с 1136 года по 1478 год. </t>
+  </si>
+  <si>
+    <t>Новгород</t>
+  </si>
+  <si>
+    <t>Графство Португалия</t>
+  </si>
+  <si>
+    <t>История Португалии как отдельного государства начинается с XII века, когда в качестве правителей земли получил представитель Бургундской династии. Именно тогда государство получило самостоятельность (сначала в качестве графства, а затем и королевства).</t>
+  </si>
+  <si>
+    <t>2.760</t>
+  </si>
+  <si>
+    <t>Лиссабон</t>
   </si>
   <si>
     <t>Витебское Княжество</t>
   </si>
   <si>
+    <t xml:space="preserve">В XII—XIV вв. удел Полоцкого княжества на Руси, с XIV в. в Литве. В основном, его территория в настоящее время входит в состав Витебской области Белоруссии. </t>
+  </si>
+  <si>
+    <t>1.665</t>
+  </si>
+  <si>
+    <t>Витебск</t>
+  </si>
+  <si>
     <t>Владимирское Княжество</t>
   </si>
   <si>
+    <t>Русское княжество XII—XIV веков, ставшее ядром Русского государства. В узком смысле — территория, которой лично владел великий князь владимирский, в широком смысле — территория всех княжеств, выделившихся из Владимирского и зависимых от владимирского князя.</t>
+  </si>
+  <si>
+    <t>1.714</t>
+  </si>
+  <si>
+    <t>Суздаль</t>
+  </si>
+  <si>
     <t>Волынское Княжество</t>
   </si>
   <si>
+    <t>Западнорусское удельное княжество с центром во Владимире-Волынском, существовавшее с X по XV век. В летописях — Володимерское.</t>
+  </si>
+  <si>
+    <t>1.121</t>
+  </si>
+  <si>
+    <t>Владимир-Волынский</t>
+  </si>
+  <si>
     <t>Эрцгерцогство Австрия</t>
   </si>
   <si>
-    <t>Кастилия</t>
+    <t>Одно из важнейших государств в рамках Священной Римской империи, было центром Габсбургской монархии и предшественником Австрийской империи.</t>
+  </si>
+  <si>
+    <t>1.543</t>
+  </si>
+  <si>
+    <t>Вена</t>
+  </si>
+  <si>
+    <t>Королевство Кастилия</t>
+  </si>
+  <si>
+    <t>Одно из средневековых королевств Пиренейского полуострова. Возникло как политическая автономия в IX столетии.</t>
+  </si>
+  <si>
+    <t>2.103</t>
+  </si>
+  <si>
+    <t>Бургос и Толедо</t>
   </si>
   <si>
     <t>Монгольская Империя</t>
   </si>
   <si>
+    <t>Государство, сложившееся в XIII веке в результате завоеваний Чингисхана и его преемников и включавшее в себя самую большую в мировой истории смежную завоёванную территорию от Восточной Европы до Японского моря и от Новгорода до Юго-Восточной Азии</t>
+  </si>
+  <si>
+    <t>111.476</t>
+  </si>
+  <si>
+    <t>Аварга</t>
+  </si>
+  <si>
     <t>Афинское Герцогство</t>
   </si>
   <si>
+    <t>Государство крестоносцев, созданное на территории современной Греции. Возникло через год после окончания Четвёртого крестового похода 1202—1204 годов.</t>
+  </si>
+  <si>
+    <t>0.466</t>
+  </si>
+  <si>
+    <t>Афины</t>
+  </si>
+  <si>
     <t>Второе Болгарское Царство</t>
   </si>
   <si>
+    <t xml:space="preserve">Средневековое болгарское государство, существовавшее с 1185 года. </t>
+  </si>
+  <si>
+    <t>1.658</t>
+  </si>
+  <si>
+    <t>Тырнов</t>
+  </si>
+  <si>
     <t>Королевство Чехия</t>
   </si>
   <si>
+    <t>Королевство в Центральной Европе, располагавшееся на исторической части территории современной Чехии.</t>
+  </si>
+  <si>
+    <t>2.314</t>
+  </si>
+  <si>
     <t>Галицко-Волынское Княжество</t>
   </si>
   <si>
+    <t xml:space="preserve">Юго-западное русское княжество династии Рюриковичей, созданное в 1199 году Романом Мстиславичем в результате объединения Волынского и Галицкого княжеств. </t>
+  </si>
+  <si>
+    <t>1.369</t>
+  </si>
+  <si>
+    <t>Галич</t>
+  </si>
+  <si>
     <t>Датская Эстляндия</t>
   </si>
   <si>
+    <t>Владение королевства Дания, существовавшее 127 лет с 1219 по 1346 год со столицей в Ревеле (ныне — Таллине), получившим своё название именно в этот период. Колонизацию же Прибалтики совершали в основном немецкие наёмники из Вестфалии.</t>
+  </si>
+  <si>
+    <t>0.617</t>
+  </si>
+  <si>
+    <t>Ревель</t>
+  </si>
+  <si>
     <t>Орден Меченосцев</t>
   </si>
   <si>
+    <t xml:space="preserve">Немецкий католический духовно-рыцарский орден, основанный в 1202 году в Риге Теодорихом из Турайды, замещавшим в то время епископа Риги Альберта Буксгевдена, для защиты имущества и миссионерской деятельности в Ливонии, которая преимущественно велась в то время огнём и мечом. </t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>Рига</t>
+  </si>
+  <si>
     <t>Великое Княжество Литовское</t>
   </si>
   <si>
+    <t>Восточноевропейское государство, существовавшее с середины XIII века по 1795 год.</t>
+  </si>
+  <si>
+    <t>2.740</t>
+  </si>
+  <si>
+    <t>Новагородок</t>
+  </si>
+  <si>
     <t>Тевтонский Орден</t>
   </si>
   <si>
+    <t>Духовно-рыцарский военный орден, основанный германскими крестоносцами в конце XII века.</t>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t>Мариенбург</t>
+  </si>
+  <si>
     <t>Золотая Орда</t>
   </si>
   <si>
+    <t>Многонациональное государство центральной Евразии в XIII—XV веках. Крупнейшее государство средневековья. С 1224 года — улус в составе Монгольской империи.</t>
+  </si>
+  <si>
+    <t>13.120</t>
+  </si>
+  <si>
     <t>Княжество Уэльс</t>
   </si>
   <si>
+    <t xml:space="preserve">Государство, феодальное, монархическое (Княжества Гвинед). Основано на территории современной Великобритании (в Уэльсе) в результате преобразования Королевства Гвинед. </t>
+  </si>
+  <si>
+    <t>1.879</t>
+  </si>
+  <si>
+    <t>Дегануи</t>
+  </si>
+  <si>
     <t>Монгольская Империя Юань</t>
   </si>
   <si>
+    <t>Монгольское государство, основной частью территории которого был Китай (1271—1368). Основано внуком Чингисхана, монгольским ханом Хубилаем, который завершил завоевание Китая в 1279 году. Империя пала в результате восстания Красных повязок в 1351—1368 годах. Официальная китайская история этой империи записана при последующей империи Мин и носит название «Юань ши».</t>
+  </si>
+  <si>
+    <t>85.430</t>
+  </si>
+  <si>
+    <t>Ханбалык</t>
+  </si>
+  <si>
     <t>Московское Княжество</t>
   </si>
   <si>
+    <t>Средневековое русское княжество. Первоначально удел Великого княжества Владимирского. Постоянная династия возникла в 1263 году.</t>
+  </si>
+  <si>
+    <t>2.964</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
     <t>Неополитанское Королевство</t>
   </si>
   <si>
+    <t>Государство в Южной Италии в XII—XIX веках, занимавшее территорию нынешних областей Италии.</t>
+  </si>
+  <si>
+    <t>Неаполь</t>
+  </si>
+  <si>
     <t>Королевство Сицилия</t>
   </si>
   <si>
+    <t>Государство, существовавшее на юге современной Италии с 1130 по 1816 год. Включало собственно остров Сицилию, а также, в разное время, Южную Италию с Неаполем и, до 1530 года, Мальту.</t>
+  </si>
+  <si>
+    <t>1.443</t>
+  </si>
+  <si>
+    <t>Палермо</t>
+  </si>
+  <si>
     <t>Княжество Валахия</t>
   </si>
   <si>
+    <t>Государственное образование на территории нынешней Румынии, существовавшее приблизительно с 1330 по 1859 годы, когда оно было объединено с Молдавским княжеством в Соединённые княжества Молдавии и Валахии.</t>
+  </si>
+  <si>
+    <t>1.916</t>
+  </si>
+  <si>
+    <t>Кымпулунг</t>
+  </si>
+  <si>
     <t>Псковская Республика</t>
   </si>
   <si>
+    <t xml:space="preserve">Средневековое государственное образование на территории Руси со столицей в городе Пскове. С начала XI века до 1136 года управлялась киевскими наместниками, затем находилась в составе Новгородской республики, пользуясь широкой автономией. </t>
+  </si>
+  <si>
+    <t>0.708</t>
+  </si>
+  <si>
+    <t>Псков</t>
+  </si>
+  <si>
     <t>Османский Эмират</t>
   </si>
   <si>
+    <t>Одно из тюркских территориальных образований Малой Азии XIII века. Во главе его стояла династия Османов.</t>
+  </si>
+  <si>
+    <t>3.790</t>
+  </si>
+  <si>
+    <t>Сёгют</t>
+  </si>
+  <si>
     <t>Княжество Молдова</t>
   </si>
   <si>
+    <t xml:space="preserve"> государство, существовавшее в XIV—XIX веках, на территории современной Молдавии, части современных Румынии и Украины. Культурно и исторически связано с Валашским княжеством, а также c Русью, Болгарией и Османской империей.</t>
+  </si>
+  <si>
+    <t>0.903</t>
+  </si>
+  <si>
+    <t>Байя</t>
+  </si>
+  <si>
     <t>Сербское Царство</t>
   </si>
   <si>
+    <t xml:space="preserve">Государство, феодальное, монархическое. Зародилось на территории современной Сербии в результате объединения сербских княжеств вокруг Королевства Рашка. </t>
+  </si>
+  <si>
+    <t>3.917</t>
+  </si>
+  <si>
+    <t>Скопье</t>
+  </si>
+  <si>
     <t>Китайская Империя Мин</t>
   </si>
   <si>
+    <t xml:space="preserve">Государство, образовавшееся на китайских землях после свержения власти монгольской империи Юань. Существовало с 1368 года по 1644 год. </t>
+  </si>
+  <si>
+    <t>65.112</t>
+  </si>
+  <si>
+    <t>Нанкин</t>
+  </si>
+  <si>
     <t>Северная Юань</t>
   </si>
   <si>
+    <t xml:space="preserve">Государство в истории Монголии, существовавшее после отделения Китая от империи Юань и изгнания монгольской династии из Пекина в 1368 году вплоть до катастрофического окончания правления последнего императора-чингизида Лигдэн-хана в XVII веке. </t>
+  </si>
+  <si>
+    <t>37.016</t>
+  </si>
+  <si>
+    <t>Шанду</t>
+  </si>
+  <si>
     <t>Тырновское Царство</t>
   </si>
   <si>
+    <t>Средневековое болгарское государство, существовавшее с 1185 года. В 1396 году завоёвано Османской империей.</t>
+  </si>
+  <si>
+    <t>1.700</t>
+  </si>
+  <si>
     <t>Босния</t>
   </si>
   <si>
+    <t>Период в истории Боснии и Герцеговины между античностью и османским владычеством. Средневековое боснийское государство, располагалось на территории современной Боснии и Герцеговины и соседних с нею стран, было образовано в XII веке.</t>
+  </si>
+  <si>
+    <t>1.640</t>
+  </si>
+  <si>
+    <t>Високо</t>
+  </si>
+  <si>
     <t>Моравская Сербия</t>
   </si>
   <si>
+    <t>Средневековое государство, образовавшееся после распада Сербского царства. Моравская Сербия стала последним сербским государством перед османским владычеством.</t>
+  </si>
+  <si>
+    <t>1.880</t>
+  </si>
+  <si>
+    <t>Крушевац</t>
+  </si>
+  <si>
     <t>Зета</t>
   </si>
   <si>
+    <t>Историческая область, средневековое государство (княжество), располагавшееся на территории современной Черногории. Название получило от реки Зета.</t>
+  </si>
+  <si>
+    <t>1.014</t>
+  </si>
+  <si>
+    <t>Шкодер</t>
+  </si>
+  <si>
     <t>Область Бранковича</t>
   </si>
   <si>
+    <t>Одно из государств, возникших после распада Сербского царства в 1371 году со смертью его правителя, царя Стефана Уроша V. Единственным правителем государства был Вук Бранкович</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>Приштина</t>
+  </si>
+  <si>
     <t>Швейцария</t>
   </si>
   <si>
-    <t>Чосон</t>
+    <t>Зародилось на территории современной Швейцарии в результате объединения трех кантонов: Ури, Швиц и Унтервальден в составе Священной Римской Империи.</t>
+  </si>
+  <si>
+    <t>1.055</t>
+  </si>
+  <si>
+    <t>Берн</t>
+  </si>
+  <si>
+    <t>Государство Великий Чосон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корейское государство, существовавшее с 1392 до 1897 года. В этот период страной правила династия Ли. </t>
+  </si>
+  <si>
+    <t>5.750</t>
+  </si>
+  <si>
+    <t>Хансон</t>
   </si>
   <si>
     <t>Бургундское Герцегство</t>
@@ -825,7 +1237,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718825997" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718832216" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -841,7 +1253,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718825997" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718832216" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -863,7 +1275,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1718825997" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1718832216" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -885,7 +1297,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718825997"/>
+          <pm:border xmlns:pm="smNativeData" id="1718832216"/>
         </ext>
       </extLst>
     </border>
@@ -904,7 +1316,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718825997"/>
+          <pm:border xmlns:pm="smNativeData" id="1718832216"/>
         </ext>
       </extLst>
     </border>
@@ -924,7 +1336,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1718825997" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1718832216" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -1188,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -1943,384 +2355,810 @@
       <c r="C44" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="D44" t="s">
+        <v>172</v>
+      </c>
       <c r="E44" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="n">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>174</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="n">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>178</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="n">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>182</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="n">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>186</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="n">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>190</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="n">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>194</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="n">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>198</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="n">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>202</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="n">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>206</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" t="s">
+        <v>208</v>
+      </c>
+      <c r="E53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="n">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>210</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="n">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>214</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="n">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>218</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="n">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>221</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E57" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="n">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>225</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58" t="s">
+        <v>227</v>
+      </c>
+      <c r="E58" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="n">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>229</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D59" t="s">
+        <v>231</v>
+      </c>
+      <c r="E59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="n">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>233</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D60" t="s">
+        <v>235</v>
+      </c>
+      <c r="E60" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="n">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>237</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" t="s">
+        <v>239</v>
+      </c>
+      <c r="E61" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="n">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>241</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D62" t="s">
+        <v>243</v>
+      </c>
+      <c r="E62" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="n">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>245</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D63" t="s">
+        <v>247</v>
+      </c>
+      <c r="E63" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="n">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>249</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D64" t="s">
+        <v>251</v>
+      </c>
+      <c r="E64" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="n">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>253</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D65" t="s">
+        <v>255</v>
+      </c>
+      <c r="E65" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="n">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>257</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D66" t="s">
+        <v>259</v>
+      </c>
+      <c r="E66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="n">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>260</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D67" t="s">
+        <v>262</v>
+      </c>
+      <c r="E67" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="n">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>264</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D68" t="s">
+        <v>266</v>
+      </c>
+      <c r="E68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="n">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>268</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69" t="s">
+        <v>270</v>
+      </c>
+      <c r="E69" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="n">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>272</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D70" t="s">
+        <v>274</v>
+      </c>
+      <c r="E70" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="n">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>276</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D71" t="s">
+        <v>278</v>
+      </c>
+      <c r="E71" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="n">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>280</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D72" t="s">
+        <v>282</v>
+      </c>
+      <c r="E72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="n">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>283</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D73" t="s">
+        <v>285</v>
+      </c>
+      <c r="E73" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="n">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>287</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D74" t="s">
+        <v>289</v>
+      </c>
+      <c r="E74" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="n">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>291</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D75" t="s">
+        <v>293</v>
+      </c>
+      <c r="E75" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="n">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>295</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D76" t="s">
+        <v>259</v>
+      </c>
+      <c r="E76" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="n">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>298</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D77" t="s">
+        <v>300</v>
+      </c>
+      <c r="E77" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="n">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>302</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D78" t="s">
+        <v>304</v>
+      </c>
+      <c r="E78" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="n">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>306</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D79" t="s">
+        <v>308</v>
+      </c>
+      <c r="E79" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="n">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>310</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D80" t="s">
+        <v>312</v>
+      </c>
+      <c r="E80" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="n">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>314</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D81" t="s">
+        <v>316</v>
+      </c>
+      <c r="E81" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="n">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>318</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D82" t="s">
+        <v>320</v>
+      </c>
+      <c r="E82" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="n">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>322</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D83" t="s">
+        <v>324</v>
+      </c>
+      <c r="E83" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="n">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>326</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D84" t="s">
+        <v>328</v>
+      </c>
+      <c r="E84" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="n">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>330</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D85" t="s">
+        <v>332</v>
+      </c>
+      <c r="E85" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="n">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>333</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D86" t="s">
+        <v>335</v>
+      </c>
+      <c r="E86" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="n">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>337</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D87" t="s">
+        <v>339</v>
+      </c>
+      <c r="E87" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="n">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>341</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D88" t="s">
+        <v>343</v>
+      </c>
+      <c r="E88" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="n">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>345</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D89" t="s">
+        <v>347</v>
+      </c>
+      <c r="E89" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="n">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>349</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D90" t="s">
+        <v>351</v>
+      </c>
+      <c r="E90" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="n">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>219</v>
+        <v>353</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D91" t="s">
+        <v>355</v>
+      </c>
+      <c r="E91" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2328,7 +3166,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>220</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2336,7 +3174,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>221</v>
+        <v>358</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2344,7 +3182,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>222</v>
+        <v>359</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2352,7 +3190,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>223</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2360,7 +3198,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>224</v>
+        <v>361</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2368,7 +3206,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>225</v>
+        <v>362</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2376,7 +3214,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>226</v>
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2384,7 +3222,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>227</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2392,7 +3230,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>228</v>
+        <v>365</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2400,7 +3238,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>229</v>
+        <v>366</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2408,7 +3246,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>230</v>
+        <v>367</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2416,7 +3254,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>231</v>
+        <v>368</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2424,7 +3262,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>232</v>
+        <v>369</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2432,7 +3270,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>233</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2440,7 +3278,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>234</v>
+        <v>371</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2448,7 +3286,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>235</v>
+        <v>372</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2456,7 +3294,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>236</v>
+        <v>373</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2464,7 +3302,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>237</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2472,7 +3310,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>238</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2480,7 +3318,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>239</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2488,7 +3326,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>240</v>
+        <v>377</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2496,7 +3334,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>241</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2504,7 +3342,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>242</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2512,7 +3350,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>243</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2520,7 +3358,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>244</v>
+        <v>381</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2528,7 +3366,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>245</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2536,7 +3374,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>246</v>
+        <v>383</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2544,7 +3382,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>247</v>
+        <v>384</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2552,7 +3390,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>248</v>
+        <v>385</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2560,7 +3398,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>249</v>
+        <v>386</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2568,7 +3406,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>250</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2576,7 +3414,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>251</v>
+        <v>388</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2584,7 +3422,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>252</v>
+        <v>389</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2592,7 +3430,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>253</v>
+        <v>390</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2600,7 +3438,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2608,14 +3446,14 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>255</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1718825997" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1718832216" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2624,16 +3462,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1718825997" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1718825997" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718825997" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718825997" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1718832216" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1718832216" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718832216" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718832216" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718825997" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718832216" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/The Rurik Empire/docs/empires.xlsx
+++ b/The Rurik Empire/docs/empires.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1718832216" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1718832216" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1718832216" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1718832216"/>
+      <pm:revision xmlns:pm="smNativeData" day="1718869554" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1718869554" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1718869554" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1718869554"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="432">
   <si>
     <t>id</t>
   </si>
@@ -1109,46 +1109,163 @@
     <t>Бургундское Герцегство</t>
   </si>
   <si>
+    <t xml:space="preserve">Cредневековое феодальное владение, сложившееся на землях бывшего королевства Бургундия, лежавших к западу от Соны и отошедших по Верденскому договору 843 года к Западно-Франкскому королевству. </t>
+  </si>
+  <si>
+    <t>Дижон</t>
+  </si>
+  <si>
     <t>Нижегородско-Суздальское Княжество</t>
   </si>
   <si>
+    <t>Одно из княжеств Северо-Восточной Руси, существовавшее в период 1341—1392, в 1393, 1411—1414, в 1425 и в 1446—1447.</t>
+  </si>
+  <si>
+    <t>1.390</t>
+  </si>
+  <si>
+    <t>Нижний Новгород</t>
+  </si>
+  <si>
     <t>Сербская Деспотия</t>
   </si>
   <si>
+    <t>Государство на Балканском полуострове в XV—XVI веках, ставшее последним сербским государством, вошедшим в состав Османской империи.</t>
+  </si>
+  <si>
+    <t>4.094</t>
+  </si>
+  <si>
+    <t>Смедерево</t>
+  </si>
+  <si>
     <t>Миланское Герцегство</t>
   </si>
   <si>
+    <t>Государство в Северной Италии, существовавшее в составе Священной Римской империи в 1395—1556 годах, затем владение Испании в 1556—1714 годах и Австрии в 1714—1797 годах</t>
+  </si>
+  <si>
+    <t>0.750</t>
+  </si>
+  <si>
+    <t>Милан</t>
+  </si>
+  <si>
     <t>Королевство Кастилия и Леон</t>
   </si>
   <si>
+    <t>Третье и окончательное политическое объединение Королевств Леон и Кастилия под Кастильской короной. Принято считать, что оно возникло в 1230 году — в момент коронации Кастильского короля (включающего Толедскую корону) Фернандо III на Леонский престол (включающий Галисийскую корону).</t>
+  </si>
+  <si>
+    <t>5.117</t>
+  </si>
+  <si>
+    <t>Мадрид</t>
+  </si>
+  <si>
     <t>Венецианская Республика</t>
   </si>
   <si>
+    <t>С конца 697 года по 1797 год республика в Европе. Располагалась в северо-восточной части территории современной Италии, имела колонии на берегах Адриатического моря, в бассейнах Эгейского, Мраморного и Чёрного морей.</t>
+  </si>
+  <si>
+    <t>1.510</t>
+  </si>
+  <si>
+    <t>Венеция</t>
+  </si>
+  <si>
     <t>Казанское Ханство</t>
   </si>
   <si>
+    <t>Татарское феодальное государство в Среднем Поволжье, существовавшее с 1438 года по 1552 год. Образовалось в процессе распада Золотой Орды на территории Булгарского улуса.</t>
+  </si>
+  <si>
+    <t>0.450</t>
+  </si>
+  <si>
+    <t>Булгар аль-Джадид</t>
+  </si>
+  <si>
     <t>Ливонский Орден</t>
   </si>
   <si>
+    <t>Отделение (ландмейстерство) Тевтонского ордена в Ливонии в 1237—1561 годах. Образован в 1237 году из остатков разгромленного язычниками-жемайтами Ордена меченосцев. Имел широкую автономию.</t>
+  </si>
+  <si>
+    <t>0.108</t>
+  </si>
+  <si>
+    <t>Вальк</t>
+  </si>
+  <si>
     <t>Герцеговина</t>
   </si>
   <si>
-    <t>Валахия</t>
+    <t>Зародилось на территории современной Боснии и Герцеговины в результате отделения от Боснии. Завоевано Османской империей.</t>
+  </si>
+  <si>
+    <t>Мостар</t>
   </si>
   <si>
     <t>Крымское Ханство</t>
   </si>
   <si>
-    <t>Астраханнское Ханство</t>
+    <t>Государство в Крыму, Северном Причерноморье и на прилегающих территориях, возникшее на территории Крымского улуса в результате распада Золотой Орды и просуществовавшее с 1441 по 1783 годы.</t>
+  </si>
+  <si>
+    <t>0.506</t>
+  </si>
+  <si>
+    <t>Кырк-Ер</t>
+  </si>
+  <si>
+    <t>Астраханское Ханство</t>
+  </si>
+  <si>
+    <t>Татарское государство, возникшее в результате распада Золотой Орды и существовавшее в XVI веке в Нижнем Поволжье.</t>
+  </si>
+  <si>
+    <t>0.917</t>
+  </si>
+  <si>
+    <t>Хаджи-Тархан</t>
   </si>
   <si>
     <t>Грузинское Царство</t>
   </si>
   <si>
+    <t>средневековое грузинское государство на Кавказе, возникшее после объединения большей части Грузии Багратом III в 1008 году.</t>
+  </si>
+  <si>
+    <t>3.970</t>
+  </si>
+  <si>
+    <t>Кутаиси</t>
+  </si>
+  <si>
     <t>Османская Империя</t>
   </si>
   <si>
+    <t>Трансконтинентальное государство, созданное в 1299 году турками-османами под предводительством удж-бея Османа Гази на северо-западе Малой Азии.</t>
+  </si>
+  <si>
+    <t>27.680</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сёгют</t>
+  </si>
+  <si>
     <t>Тюменское Ханство</t>
+  </si>
+  <si>
+    <t>Тюрко-татарское государство в Сибири. В 1563 году вошло в состав Сибирского ханства.</t>
+  </si>
+  <si>
+    <t>4.730</t>
+  </si>
+  <si>
+    <t>Чинги-Тура</t>
   </si>
   <si>
     <t>Казахское Ханство</t>
@@ -1237,7 +1354,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718832216" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718869554" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1253,7 +1370,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718832216" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718869554" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1275,7 +1392,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1718832216" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1718869554" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1297,7 +1414,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718832216"/>
+          <pm:border xmlns:pm="smNativeData" id="1718869554"/>
         </ext>
       </extLst>
     </border>
@@ -1316,7 +1433,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718832216"/>
+          <pm:border xmlns:pm="smNativeData" id="1718869554"/>
         </ext>
       </extLst>
     </border>
@@ -1336,7 +1453,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1718832216" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1718869554" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -1600,10 +1717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -2481,7 +2598,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:5">
       <c r="A52" t="n">
         <v>51</v>
       </c>
@@ -3161,116 +3278,242 @@
         <v>356</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:5">
       <c r="A92" t="n">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D92" t="s">
+        <v>335</v>
+      </c>
+      <c r="E92" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" t="n">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>360</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D93" t="s">
+        <v>362</v>
+      </c>
+      <c r="E93" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" t="n">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>364</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D94" t="s">
+        <v>366</v>
+      </c>
+      <c r="E94" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" t="n">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>368</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D95" t="s">
+        <v>370</v>
+      </c>
+      <c r="E95" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" t="n">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>372</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D96" t="s">
+        <v>374</v>
+      </c>
+      <c r="E96" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" t="n">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>376</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D97" t="s">
+        <v>378</v>
+      </c>
+      <c r="E97" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" t="n">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>380</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D98" t="s">
+        <v>382</v>
+      </c>
+      <c r="E98" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" t="n">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>384</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D99" t="s">
+        <v>386</v>
+      </c>
+      <c r="E99" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="n">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>388</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D100" t="s">
+        <v>102</v>
+      </c>
+      <c r="E100" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" t="n">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>391</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D101" t="s">
+        <v>393</v>
+      </c>
+      <c r="E101" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" t="n">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>395</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D102" t="s">
+        <v>397</v>
+      </c>
+      <c r="E102" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" t="n">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>399</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D103" t="s">
+        <v>401</v>
+      </c>
+      <c r="E103" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" t="n">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>403</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D104" t="s">
+        <v>405</v>
+      </c>
+      <c r="E104" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" t="n">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>370</v>
+        <v>407</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D105" t="s">
+        <v>409</v>
+      </c>
+      <c r="E105" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -3278,7 +3521,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -3286,7 +3529,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -3294,7 +3537,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -3302,7 +3545,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -3310,7 +3553,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3318,7 +3561,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -3326,7 +3569,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3334,7 +3577,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -3342,7 +3585,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3350,7 +3593,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -3358,7 +3601,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3366,7 +3609,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -3374,7 +3617,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3382,7 +3625,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3390,7 +3633,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -3398,7 +3641,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -3406,7 +3649,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3414,7 +3657,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -3422,7 +3665,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -3430,7 +3673,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -3438,22 +3681,14 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="n">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1718832216" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1718869554" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3462,16 +3697,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1718832216" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1718832216" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718832216" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718832216" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1718869554" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1718869554" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718869554" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718869554" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718832216" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718869554" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/The Rurik Empire/docs/empires.xlsx
+++ b/The Rurik Empire/docs/empires.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="bazun"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\bazGames\The Rurik Empire\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5E308D-1B09-4744-B5B1-3A76F149FEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="29040" windowHeight="15720" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1718869554" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="487">
   <si>
     <t>id</t>
   </si>
@@ -1274,9 +1279,6 @@
     <t>Тверское Княжество</t>
   </si>
   <si>
-    <t>Арагон</t>
-  </si>
-  <si>
     <t>Сибирское Ханство</t>
   </si>
   <si>
@@ -1289,9 +1291,6 @@
     <t>Ногайская Орда</t>
   </si>
   <si>
-    <t>Испания</t>
-  </si>
-  <si>
     <t>Русское Царство</t>
   </si>
   <si>
@@ -1329,57 +1328,193 @@
   </si>
   <si>
     <t>Кордовский Халифат</t>
+  </si>
+  <si>
+    <t>Казахское государство на территории современного Казахстана и сопредельных с ним государств, образовавшееся в процессе распада Золотой Орды в 1465 году и Узбекского ханства в 1468 году.</t>
+  </si>
+  <si>
+    <t>Яссы</t>
+  </si>
+  <si>
+    <t>1.960</t>
+  </si>
+  <si>
+    <t>Удельное (позже — великое) княжество Северо-Восточной Руси со столицей в Твери. Существовало с 1247 по 1485 год.</t>
+  </si>
+  <si>
+    <t>Тверь</t>
+  </si>
+  <si>
+    <t>2.114</t>
+  </si>
+  <si>
+    <t>Королевство Арагон</t>
+  </si>
+  <si>
+    <t>Государство, существовавшее в 1035 — 1707 годах на территории современной Испании и Франции.</t>
+  </si>
+  <si>
+    <t>Сарагоса</t>
+  </si>
+  <si>
+    <t>4.935</t>
+  </si>
+  <si>
+    <t>Татарское феодальное государство в Западной Сибири, образовавшееся в конце XV века в результате распада Золотой Орды.</t>
+  </si>
+  <si>
+    <t>Условное название династической унии ряда феодальных государств, находившихся под властью австрийской ветви семейства Габсбургов.</t>
+  </si>
+  <si>
+    <t>6.113</t>
+  </si>
+  <si>
+    <t>Королевство, образованное после распада Венгерского королевства.</t>
+  </si>
+  <si>
+    <t>Дюлафехервар</t>
+  </si>
+  <si>
+    <t>3.080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ногайское государственное образование, появившееся в результате распада Золотой Орды, в междуречье Волги и Урала в конце XIV — начале XV веков. </t>
+  </si>
+  <si>
+    <t>Сарайчик</t>
+  </si>
+  <si>
+    <t>3.370</t>
+  </si>
+  <si>
+    <t>Королевство Испания</t>
+  </si>
+  <si>
+    <t>Трансконтинентальное суверенное государство в Юго-Западной Европе, имеющее часть территорий в Африке.</t>
+  </si>
+  <si>
+    <t>7.600</t>
+  </si>
+  <si>
+    <t>Наименование Русского государства между 1547 и 1721 годами. В 1547 году государь всея Руси и великий князь Московский Иван IV Грозный был венчан царём и принял полный титул.</t>
+  </si>
+  <si>
+    <t>6.070</t>
+  </si>
+  <si>
+    <t>Корни рюкюской культуры уходят в I тысячелетие до н. э. Примерно в 1200 году произошло объединение различных феодалов, а 200 лет спустя было основано государство Рюкю.</t>
+  </si>
+  <si>
+    <t>Шури</t>
+  </si>
+  <si>
+    <t>4.670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зародилось на территории современного Люксембурга в составе Священной Римской Империи в результате преобразования Графства Люксембург (основано в 963) в герцогство. </t>
+  </si>
+  <si>
+    <t>0.370</t>
+  </si>
+  <si>
+    <t>Ирландское государство, которое существовало с 1542 по 1800 год и занимало весь остров Ирландия.</t>
+  </si>
+  <si>
+    <t>Дублин</t>
+  </si>
+  <si>
+    <t>3.755</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Шведская губерния, существовавшая с 1561 по 1721 год. Эта территория была завоёвана Россией в ходе Северной войны, итоги которой, включая территориальные изменения, зафиксированы Ништадтским мирным договором 1721 года.</t>
+  </si>
+  <si>
+    <t>1.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Образвано на терр. совр. Эстонии в результате отделения от Ордена меченосцев. </t>
+  </si>
+  <si>
+    <t>Пильтен</t>
+  </si>
+  <si>
+    <t>0.078</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> федеративное государство, возникшее в результате объединения Королевства Польского и Великого княжества Литовского на основе Люблинской унии в 1569 году и ликвидированное в 1795 году с разделом его земель между Российской империей, Пруссией и Австрией.</t>
+  </si>
+  <si>
+    <t>Варшава</t>
+  </si>
+  <si>
+    <t>7.500</t>
+  </si>
+  <si>
+    <t>Государственное образование, существовавшее с 1570 по 1711 год на территории Трансильвании. Его территория, помимо земель Трансильванского воеводства, также включала восточную часть Венгрии</t>
+  </si>
+  <si>
+    <t>Алба-Юлия</t>
+  </si>
+  <si>
+    <t>Название Габсбургских Нидерландов в 1556—1581 годах, а затем Южных Нидерландов до их перехода под власть Австрийской короны в 1714 году.</t>
+  </si>
+  <si>
+    <t>Брюссель</t>
+  </si>
+  <si>
+    <t>1.746</t>
+  </si>
+  <si>
+    <t>Конфедеративная республика, образовавшаяся в результате победы Нидерландской революции XVI века. Республика прекратила своё существование с французским вторжением 1792–1795 годов, хотя упадок наступил уже раньше.</t>
+  </si>
+  <si>
+    <t>Гаага</t>
+  </si>
+  <si>
+    <t>1.318</t>
+  </si>
+  <si>
+    <t>Историческая область на севере Европы, бывшее герцогство.</t>
+  </si>
+  <si>
+    <t>0.560</t>
+  </si>
+  <si>
+    <t>Историческая область в Германии. Голштиния расположена в южной части федеральной земли Шлезвиг-Гольштейн.</t>
+  </si>
+  <si>
+    <t>Киль</t>
+  </si>
+  <si>
+    <t>0.828</t>
+  </si>
+  <si>
+    <t>Средневековое арабское исламское государство, располагавшееся на территории Пиренейского полуострова, на землях современных государств Испания и Португалия (929—1031).</t>
+  </si>
+  <si>
+    <t>6.000</t>
+  </si>
+  <si>
+    <t>Неизвестный</t>
+  </si>
+  <si>
+    <t>Эти регионы еще не определены.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;₽&quot;;\-#,##0\ &quot;₽&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718869554" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718869554" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1388,70 +1523,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1718869554" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
+        <fgColor rgb="FFCC0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF339933"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF990000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0033CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3333CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6600CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718869554"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718869554"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF6600CC"/>
+      <color rgb="FF3333CC"/>
+      <color rgb="FF0033CC"/>
+      <color rgb="FF339933"/>
+      <color rgb="FFFF5050"/>
+      <color rgb="FFCC9900"/>
+      <color rgb="FF990000"/>
+      <color rgb="FFFF3300"/>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1718869554" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
@@ -1466,10 +1706,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="D5D5D5"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="494949"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="EEECE1"/>
@@ -1716,22 +1956,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.321429" customWidth="1"/>
-    <col min="3" max="3" width="95.142857" customWidth="1" style="1"/>
-    <col min="4" max="4" width="9.428571" customWidth="1"/>
-    <col min="5" max="5" width="21.000000" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1748,11 +1991,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="n">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1765,11 +2008,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="n">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1782,11 +2025,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="n">
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1799,11 +2042,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1816,11 +2059,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="n">
+    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1833,11 +2076,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="n">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1850,11 +2093,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="n">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1867,11 +2110,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="n">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1884,11 +2127,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="n">
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1901,11 +2144,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="n">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1918,11 +2161,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="n">
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1935,11 +2178,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="n">
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1952,11 +2195,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="n">
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1969,11 +2212,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="n">
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1986,11 +2229,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="n">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="13" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2003,11 +2246,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="n">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2020,11 +2263,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="n">
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2037,11 +2280,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="n">
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="18" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2054,11 +2297,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="n">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2071,8 +2314,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="n">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -2088,8 +2331,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="n">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -2105,8 +2348,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="n">
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -2122,8 +2365,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="n">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -2139,8 +2382,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="n">
+    <row r="25" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -2156,8 +2399,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="n">
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -2173,8 +2416,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="n">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2190,8 +2433,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="n">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -2207,8 +2450,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="n">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -2224,8 +2467,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="n">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -2241,8 +2484,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="n">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -2258,8 +2501,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="n">
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -2275,8 +2518,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="n">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -2292,8 +2535,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="n">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -2309,8 +2552,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="n">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -2326,8 +2569,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="n">
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -2343,8 +2586,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="n">
+    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -2360,8 +2603,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="n">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -2377,8 +2620,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="n">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -2394,8 +2637,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="n">
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -2411,8 +2654,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="n">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -2428,8 +2671,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="n">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -2445,8 +2688,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="n">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -2462,8 +2705,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="n">
+    <row r="44" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -2479,8 +2722,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="n">
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -2496,8 +2739,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="n">
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -2513,8 +2756,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="n">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -2530,8 +2773,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="n">
+    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -2547,8 +2790,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="n">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -2564,8 +2807,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="n">
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -2581,8 +2824,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="n">
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -2598,8 +2841,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
+    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
@@ -2615,8 +2858,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -2632,8 +2875,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -2649,8 +2892,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -2666,8 +2909,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
@@ -2683,8 +2926,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
@@ -2700,8 +2943,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
@@ -2717,8 +2960,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
+    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
@@ -2734,8 +2977,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
@@ -2751,8 +2994,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
@@ -2768,8 +3011,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
@@ -2785,8 +3028,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
+    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
@@ -2802,8 +3045,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
@@ -2819,8 +3062,8 @@
         <v>252</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
@@ -2836,8 +3079,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
@@ -2853,8 +3096,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
@@ -2870,8 +3113,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
+    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
@@ -2887,8 +3130,8 @@
         <v>267</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
+    <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
@@ -2904,8 +3147,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
@@ -2921,8 +3164,8 @@
         <v>275</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
@@ -2938,8 +3181,8 @@
         <v>279</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
@@ -2955,8 +3198,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
@@ -2972,8 +3215,8 @@
         <v>286</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
+    <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
@@ -2989,8 +3232,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
@@ -3006,8 +3249,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
@@ -3023,8 +3266,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
+    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
@@ -3040,8 +3283,8 @@
         <v>301</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
+    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
@@ -3057,8 +3300,8 @@
         <v>305</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
+    <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
@@ -3074,8 +3317,8 @@
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
@@ -3091,8 +3334,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
+    <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
@@ -3108,8 +3351,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="n">
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
@@ -3125,8 +3368,8 @@
         <v>321</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="n">
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
@@ -3142,8 +3385,8 @@
         <v>325</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="n">
+    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
@@ -3159,8 +3402,8 @@
         <v>329</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="n">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
@@ -3176,8 +3419,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="n">
+    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
@@ -3193,8 +3436,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="n">
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
@@ -3210,8 +3453,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="n">
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
@@ -3227,8 +3470,8 @@
         <v>344</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="n">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
@@ -3244,8 +3487,8 @@
         <v>348</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="n">
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
@@ -3261,8 +3504,8 @@
         <v>352</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="n">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
@@ -3278,8 +3521,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="n">
+    <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
@@ -3295,8 +3538,8 @@
         <v>359</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="n">
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
@@ -3312,8 +3555,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="n">
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
@@ -3329,8 +3572,8 @@
         <v>367</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="n">
+    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
@@ -3346,8 +3589,8 @@
         <v>371</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="n">
+    <row r="96" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
@@ -3363,8 +3606,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="n">
+    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
@@ -3380,8 +3623,8 @@
         <v>379</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="n">
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
@@ -3397,8 +3640,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="n">
+    <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
@@ -3414,8 +3657,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="n">
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
@@ -3431,8 +3674,8 @@
         <v>390</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="n">
+    <row r="101" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
@@ -3448,8 +3691,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="n">
+    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
@@ -3465,8 +3708,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="n">
+    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
@@ -3482,8 +3725,8 @@
         <v>402</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="n">
+    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
@@ -3499,8 +3742,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="n">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
@@ -3516,194 +3759,383 @@
         <v>410</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="n">
+    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="n">
+      <c r="C106" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D106" t="s">
+        <v>432</v>
+      </c>
+      <c r="E106" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="n">
+      <c r="C107" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D107" t="s">
+        <v>435</v>
+      </c>
+      <c r="E107" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>436</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D108" t="s">
+        <v>439</v>
+      </c>
+      <c r="E108" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="n">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="C109" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D109" t="s">
+        <v>386</v>
+      </c>
+      <c r="E109" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="n">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="C110" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D110" t="s">
+        <v>442</v>
+      </c>
+      <c r="E110" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="n">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="C111" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D111" t="s">
+        <v>445</v>
+      </c>
+      <c r="E111" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="n">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="C112" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D112" t="s">
+        <v>448</v>
+      </c>
+      <c r="E112" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>449</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D113" t="s">
+        <v>451</v>
+      </c>
+      <c r="E113" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="n">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="C114" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D114" t="s">
+        <v>453</v>
+      </c>
+      <c r="E114" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="n">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="C115" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D115" t="s">
+        <v>456</v>
+      </c>
+      <c r="E115" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="n">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="C116" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D116" t="s">
+        <v>458</v>
+      </c>
+      <c r="E116" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="n">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="C117" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D117" t="s">
+        <v>461</v>
+      </c>
+      <c r="E117" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="n">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="C118" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D118" t="s">
+        <v>463</v>
+      </c>
+      <c r="E118" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="n">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
+      <c r="C119" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D119" t="s">
+        <v>466</v>
+      </c>
+      <c r="E119" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="n">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="C120" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D120" t="s">
+        <v>469</v>
+      </c>
+      <c r="E120" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="n">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
+      <c r="C121" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D121" t="s">
+        <v>102</v>
+      </c>
+      <c r="E121" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="n">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="C122" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D122" t="s">
+        <v>474</v>
+      </c>
+      <c r="E122" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="n">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
+      <c r="C123" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D123" t="s">
+        <v>477</v>
+      </c>
+      <c r="E123" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="n">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
+      <c r="C124" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D124" t="s">
+        <v>479</v>
+      </c>
+      <c r="E124" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="n">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
+      <c r="C125" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D125" t="s">
+        <v>482</v>
+      </c>
+      <c r="E125" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="n">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="n">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>431</v>
+      <c r="C126" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D126" t="s">
+        <v>484</v>
+      </c>
+      <c r="E126" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>485</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1718869554" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1718869554" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1718869554" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718869554" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718869554" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1718869554" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">

--- a/The Rurik Empire/docs/empires.xlsx
+++ b/The Rurik Empire/docs/empires.xlsx
@@ -8,15 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\bazGames\The Rurik Empire\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5E308D-1B09-4744-B5B1-3A76F149FEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999ACC11-5498-4953-AEAA-54CF78E26CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1718869554" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
       <pm:docPrefs xmlns:pm="smNativeData" id="1718869554" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
@@ -1962,8 +1971,8 @@
   </sheetPr>
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/The Rurik Empire/docs/empires.xlsx
+++ b/The Rurik Empire/docs/empires.xlsx
@@ -1,36 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="bazun"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\bazGames\The Rurik Empire\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999ACC11-5498-4953-AEAA-54CF78E26CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="29040" windowHeight="15720" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1718869554" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1718869554" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1718869554" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1718869554"/>
+      <pm:revision xmlns:pm="smNativeData" day="1719076901" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1719076901" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1719076901" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1719076901"/>
     </ext>
   </extLst>
 </workbook>
@@ -295,7 +281,7 @@
     <t>Рим</t>
   </si>
   <si>
-    <t>Астурия</t>
+    <t>Королевство Астурия</t>
   </si>
   <si>
     <t>Автономное сообщество и провинция на севере Испании. Королевство было известно как Астурия до 924 года, затем оно стало называться Королевство Леон.
@@ -1285,217 +1271,217 @@
     <t>Казахское Ханство</t>
   </si>
   <si>
+    <t>Казахское государство на территории современного Казахстана и сопредельных с ним государств, образовавшееся в процессе распада Золотой Орды в 1465 году и Узбекского ханства в 1468 году.</t>
+  </si>
+  <si>
+    <t>1.960</t>
+  </si>
+  <si>
+    <t>Яссы</t>
+  </si>
+  <si>
     <t>Тверское Княжество</t>
   </si>
   <si>
+    <t>Удельное (позже — великое) княжество Северо-Восточной Руси со столицей в Твери. Существовало с 1247 по 1485 год.</t>
+  </si>
+  <si>
+    <t>2.114</t>
+  </si>
+  <si>
+    <t>Тверь</t>
+  </si>
+  <si>
+    <t>Королевство Арагон</t>
+  </si>
+  <si>
+    <t>Государство, существовавшее в 1035 — 1707 годах на территории современной Испании и Франции.</t>
+  </si>
+  <si>
+    <t>4.935</t>
+  </si>
+  <si>
+    <t>Сарагоса</t>
+  </si>
+  <si>
     <t>Сибирское Ханство</t>
   </si>
   <si>
+    <t>Татарское феодальное государство в Западной Сибири, образовавшееся в конце XV века в результате распада Золотой Орды.</t>
+  </si>
+  <si>
     <t>Габсбургская Империя</t>
   </si>
   <si>
+    <t>Условное название династической унии ряда феодальных государств, находившихся под властью австрийской ветви семейства Габсбургов.</t>
+  </si>
+  <si>
+    <t>6.113</t>
+  </si>
+  <si>
     <t>Восточно-Венгерское Королевство</t>
   </si>
   <si>
+    <t>Королевство, образованное после распада Венгерского королевства.</t>
+  </si>
+  <si>
+    <t>3.080</t>
+  </si>
+  <si>
+    <t>Дюлафехервар</t>
+  </si>
+  <si>
     <t>Ногайская Орда</t>
   </si>
   <si>
+    <t xml:space="preserve">Ногайское государственное образование, появившееся в результате распада Золотой Орды, в междуречье Волги и Урала в конце XIV — начале XV веков. </t>
+  </si>
+  <si>
+    <t>3.370</t>
+  </si>
+  <si>
+    <t>Сарайчик</t>
+  </si>
+  <si>
+    <t>Королевство Испания</t>
+  </si>
+  <si>
+    <t>Трансконтинентальное суверенное государство в Юго-Западной Европе, имеющее часть территорий в Африке.</t>
+  </si>
+  <si>
+    <t>7.600</t>
+  </si>
+  <si>
     <t>Русское Царство</t>
   </si>
   <si>
+    <t>Наименование Русского государства между 1547 и 1721 годами. В 1547 году государь всея Руси и великий князь Московский Иван IV Грозный был венчан царём и принял полный титул.</t>
+  </si>
+  <si>
+    <t>6.070</t>
+  </si>
+  <si>
     <t>Рюкю</t>
   </si>
   <si>
+    <t>Корни рюкюской культуры уходят в I тысячелетие до н. э. Примерно в 1200 году произошло объединение различных феодалов, а 200 лет спустя было основано государство Рюкю.</t>
+  </si>
+  <si>
+    <t>4.670</t>
+  </si>
+  <si>
+    <t>Шури</t>
+  </si>
+  <si>
     <t>Люксембург</t>
   </si>
   <si>
+    <t xml:space="preserve">Зародилось на территории современного Люксембурга в составе Священной Римской Империи в результате преобразования Графства Люксембург (основано в 963) в герцогство. </t>
+  </si>
+  <si>
+    <t>0.370</t>
+  </si>
+  <si>
     <t>Королевство Ирландия</t>
   </si>
   <si>
+    <t>Ирландское государство, которое существовало с 1542 по 1800 год и занимало весь остров Ирландия.</t>
+  </si>
+  <si>
+    <t>3.755</t>
+  </si>
+  <si>
+    <t>Дублин</t>
+  </si>
+  <si>
     <t>Шведская Эстляндия</t>
   </si>
   <si>
+    <t xml:space="preserve"> Шведская губерния, существовавшая с 1561 по 1721 год. Эта территория была завоёвана Россией в ходе Северной войны, итоги которой, включая территориальные изменения, зафиксированы Ништадтским мирным договором 1721 года.</t>
+  </si>
+  <si>
+    <t>1.117</t>
+  </si>
+  <si>
     <t>Курляндское Епископство</t>
   </si>
   <si>
+    <t xml:space="preserve">Образвано на терр. совр. Эстонии в результате отделения от Ордена меченосцев. </t>
+  </si>
+  <si>
+    <t>0.078</t>
+  </si>
+  <si>
+    <t>Пильтен</t>
+  </si>
+  <si>
     <t>Речь Посполитая</t>
   </si>
   <si>
+    <t xml:space="preserve"> федеративное государство, возникшее в результате объединения Королевства Польского и Великого княжества Литовского на основе Люблинской унии в 1569 году и ликвидированное в 1795 году с разделом его земель между Российской империей, Пруссией и Австрией.</t>
+  </si>
+  <si>
+    <t>7.500</t>
+  </si>
+  <si>
+    <t>Варшава</t>
+  </si>
+  <si>
     <t>Трансильвания</t>
   </si>
   <si>
+    <t>Государственное образование, существовавшее с 1570 по 1711 год на территории Трансильвании. Его территория, помимо земель Трансильванского воеводства, также включала восточную часть Венгрии</t>
+  </si>
+  <si>
+    <t>Алба-Юлия</t>
+  </si>
+  <si>
     <t>Испанские Нидерладны</t>
   </si>
   <si>
+    <t>Название Габсбургских Нидерландов в 1556—1581 годах, а затем Южных Нидерландов до их перехода под власть Австрийской короны в 1714 году.</t>
+  </si>
+  <si>
+    <t>1.746</t>
+  </si>
+  <si>
+    <t>Брюссель</t>
+  </si>
+  <si>
     <t>Республика Соединенных Провинций</t>
   </si>
   <si>
+    <t>Конфедеративная республика, образовавшаяся в результате победы Нидерландской революции XVI века. Республика прекратила своё существование с французским вторжением 1792–1795 годов, хотя упадок наступил уже раньше.</t>
+  </si>
+  <si>
+    <t>1.318</t>
+  </si>
+  <si>
+    <t>Гаага</t>
+  </si>
+  <si>
     <t>Шлезвиг</t>
   </si>
   <si>
+    <t>Историческая область на севере Европы, бывшее герцогство.</t>
+  </si>
+  <si>
+    <t>0.560</t>
+  </si>
+  <si>
     <t>Гольштейн</t>
   </si>
   <si>
+    <t>Историческая область в Германии. Голштиния расположена в южной части федеральной земли Шлезвиг-Гольштейн.</t>
+  </si>
+  <si>
+    <t>0.828</t>
+  </si>
+  <si>
+    <t>Киль</t>
+  </si>
+  <si>
     <t>Кордовский Халифат</t>
-  </si>
-  <si>
-    <t>Казахское государство на территории современного Казахстана и сопредельных с ним государств, образовавшееся в процессе распада Золотой Орды в 1465 году и Узбекского ханства в 1468 году.</t>
-  </si>
-  <si>
-    <t>Яссы</t>
-  </si>
-  <si>
-    <t>1.960</t>
-  </si>
-  <si>
-    <t>Удельное (позже — великое) княжество Северо-Восточной Руси со столицей в Твери. Существовало с 1247 по 1485 год.</t>
-  </si>
-  <si>
-    <t>Тверь</t>
-  </si>
-  <si>
-    <t>2.114</t>
-  </si>
-  <si>
-    <t>Королевство Арагон</t>
-  </si>
-  <si>
-    <t>Государство, существовавшее в 1035 — 1707 годах на территории современной Испании и Франции.</t>
-  </si>
-  <si>
-    <t>Сарагоса</t>
-  </si>
-  <si>
-    <t>4.935</t>
-  </si>
-  <si>
-    <t>Татарское феодальное государство в Западной Сибири, образовавшееся в конце XV века в результате распада Золотой Орды.</t>
-  </si>
-  <si>
-    <t>Условное название династической унии ряда феодальных государств, находившихся под властью австрийской ветви семейства Габсбургов.</t>
-  </si>
-  <si>
-    <t>6.113</t>
-  </si>
-  <si>
-    <t>Королевство, образованное после распада Венгерского королевства.</t>
-  </si>
-  <si>
-    <t>Дюлафехервар</t>
-  </si>
-  <si>
-    <t>3.080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ногайское государственное образование, появившееся в результате распада Золотой Орды, в междуречье Волги и Урала в конце XIV — начале XV веков. </t>
-  </si>
-  <si>
-    <t>Сарайчик</t>
-  </si>
-  <si>
-    <t>3.370</t>
-  </si>
-  <si>
-    <t>Королевство Испания</t>
-  </si>
-  <si>
-    <t>Трансконтинентальное суверенное государство в Юго-Западной Европе, имеющее часть территорий в Африке.</t>
-  </si>
-  <si>
-    <t>7.600</t>
-  </si>
-  <si>
-    <t>Наименование Русского государства между 1547 и 1721 годами. В 1547 году государь всея Руси и великий князь Московский Иван IV Грозный был венчан царём и принял полный титул.</t>
-  </si>
-  <si>
-    <t>6.070</t>
-  </si>
-  <si>
-    <t>Корни рюкюской культуры уходят в I тысячелетие до н. э. Примерно в 1200 году произошло объединение различных феодалов, а 200 лет спустя было основано государство Рюкю.</t>
-  </si>
-  <si>
-    <t>Шури</t>
-  </si>
-  <si>
-    <t>4.670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зародилось на территории современного Люксембурга в составе Священной Римской Империи в результате преобразования Графства Люксембург (основано в 963) в герцогство. </t>
-  </si>
-  <si>
-    <t>0.370</t>
-  </si>
-  <si>
-    <t>Ирландское государство, которое существовало с 1542 по 1800 год и занимало весь остров Ирландия.</t>
-  </si>
-  <si>
-    <t>Дублин</t>
-  </si>
-  <si>
-    <t>3.755</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Шведская губерния, существовавшая с 1561 по 1721 год. Эта территория была завоёвана Россией в ходе Северной войны, итоги которой, включая территориальные изменения, зафиксированы Ништадтским мирным договором 1721 года.</t>
-  </si>
-  <si>
-    <t>1.117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Образвано на терр. совр. Эстонии в результате отделения от Ордена меченосцев. </t>
-  </si>
-  <si>
-    <t>Пильтен</t>
-  </si>
-  <si>
-    <t>0.078</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> федеративное государство, возникшее в результате объединения Королевства Польского и Великого княжества Литовского на основе Люблинской унии в 1569 году и ликвидированное в 1795 году с разделом его земель между Российской империей, Пруссией и Австрией.</t>
-  </si>
-  <si>
-    <t>Варшава</t>
-  </si>
-  <si>
-    <t>7.500</t>
-  </si>
-  <si>
-    <t>Государственное образование, существовавшее с 1570 по 1711 год на территории Трансильвании. Его территория, помимо земель Трансильванского воеводства, также включала восточную часть Венгрии</t>
-  </si>
-  <si>
-    <t>Алба-Юлия</t>
-  </si>
-  <si>
-    <t>Название Габсбургских Нидерландов в 1556—1581 годах, а затем Южных Нидерландов до их перехода под власть Австрийской короны в 1714 году.</t>
-  </si>
-  <si>
-    <t>Брюссель</t>
-  </si>
-  <si>
-    <t>1.746</t>
-  </si>
-  <si>
-    <t>Конфедеративная республика, образовавшаяся в результате победы Нидерландской революции XVI века. Республика прекратила своё существование с французским вторжением 1792–1795 годов, хотя упадок наступил уже раньше.</t>
-  </si>
-  <si>
-    <t>Гаага</t>
-  </si>
-  <si>
-    <t>1.318</t>
-  </si>
-  <si>
-    <t>Историческая область на севере Европы, бывшее герцогство.</t>
-  </si>
-  <si>
-    <t>0.560</t>
-  </si>
-  <si>
-    <t>Историческая область в Германии. Голштиния расположена в южной части федеральной земли Шлезвиг-Гольштейн.</t>
-  </si>
-  <si>
-    <t>Киль</t>
-  </si>
-  <si>
-    <t>0.828</t>
   </si>
   <si>
     <t>Средневековое арабское исламское государство, располагавшееся на территории Пиренейского полуострова, на землях современных государств Испания и Португалия (929—1031).</t>
@@ -1513,17 +1499,52 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;₽&quot;;\-#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719076901" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Times New Roman" sz="220" lang="default"/>
+            <pm:ea face="SimSun" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1719076901" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1533,178 +1554,648 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC0000"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1719076901" type="1" fgLvl="100" fgClr="00CC0000" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1719076901" type="1" fgLvl="100" fgClr="0000B0F0" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF339933"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1719076901" type="1" fgLvl="100" fgClr="00339933" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF963634"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1719076901" type="1" fgLvl="100" fgClr="00963634" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF538DD5"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1719076901" type="1" fgLvl="100" fgClr="00538DD5" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1719076901" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF990000"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1719076901" type="1" fgLvl="100" fgClr="00990000" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1719076901" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC9900"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1719076901" type="1" fgLvl="100" fgClr="00CC9900" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1719076901" type="1" fgLvl="100" fgClr="000070C0" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5050"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1719076901" type="1" fgLvl="100" fgClr="00FF5050" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0033CC"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1719076901" type="1" fgLvl="100" fgClr="000033CC" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3333CC"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1719076901" type="1" fgLvl="100" fgClr="003333CC" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6600CC"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1719076901" type="1" fgLvl="100" fgClr="006600CC" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1719076901" type="1" fgLvl="100" fgClr="0000FFFF" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF16365C"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1719076901" type="1" fgLvl="100" fgClr="0016365C" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC4BD97"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1719076901" type="1" fgLvl="100" fgClr="00C4BD97" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1719076901" type="1" fgLvl="100" fgClr="00B8CCE4" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1719076901" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1719076901"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1719076901"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1719076901"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1719076901"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1719076901"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1719076901"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1719076901"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1719076901"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1719076901"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1719076901"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1719076901"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1719076901"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1719076901"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1719076901"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1719076901"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1719076901"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1719076901"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1719076901"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1719076901"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1719076901"/>
+        </ext>
+      </extLst>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF00FFFF"/>
-      <color rgb="FF6600CC"/>
-      <color rgb="FF3333CC"/>
-      <color rgb="FF0033CC"/>
-      <color rgb="FF339933"/>
-      <color rgb="FFFF5050"/>
-      <color rgb="FFCC9900"/>
-      <color rgb="FF990000"/>
-      <color rgb="FFFF3300"/>
-      <color rgb="FFFF0000"/>
-    </mruColors>
-  </colors>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1718869554" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1719076901" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
+      <pm:colors xmlns:pm="smNativeData" id="1719076901" count="15">
+        <pm:color name="Цвет 24" rgb="CC0000"/>
+        <pm:color name="Цвет 25" rgb="00B0F0"/>
+        <pm:color name="Цвет 26" rgb="339933"/>
+        <pm:color name="Цвет 27" rgb="963634"/>
+        <pm:color name="Цвет 28" rgb="538DD5"/>
+        <pm:color name="Цвет 29" rgb="990000"/>
+        <pm:color name="Цвет 30" rgb="CC9900"/>
+        <pm:color name="Цвет 31" rgb="0070C0"/>
+        <pm:color name="Цвет 32" rgb="FF5050"/>
+        <pm:color name="Цвет 33" rgb="0033CC"/>
+        <pm:color name="Цвет 34" rgb="3333CC"/>
+        <pm:color name="Цвет 35" rgb="6600CC"/>
+        <pm:color name="Цвет 36" rgb="16365C"/>
+        <pm:color name="Цвет 37" rgb="C4BD97"/>
+        <pm:color name="Цвет 38" rgb="B8CCE4"/>
+      </pm:colors>
     </ext>
   </extLst>
 </styleSheet>
@@ -1715,10 +2206,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="D5D5D5"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="494949"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="EEECE1"/>
@@ -1965,25 +2456,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.40"/>
   <cols>
-    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="2" max="2" width="37.428571" customWidth="1"/>
+    <col min="3" max="3" width="95.142857" customWidth="1" style="1"/>
+    <col min="4" max="4" width="10.714286" customWidth="1"/>
+    <col min="5" max="5" width="21.000000" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2000,8 +2491,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:5">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2017,8 +2508,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:5">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2034,8 +2525,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:5">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2051,8 +2542,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2068,8 +2559,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:5">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2085,8 +2576,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:5">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2102,8 +2593,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:5">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2119,8 +2610,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:5">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -2136,8 +2627,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:5">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -2153,8 +2644,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:5">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -2170,8 +2661,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:5">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -2187,8 +2678,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:5">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2204,8 +2695,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:5">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -2221,8 +2712,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:5">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -2238,8 +2729,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:5">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -2255,8 +2746,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:5">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -2272,8 +2763,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:5">
+      <c r="A18" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -2289,8 +2780,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:5">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -2306,8 +2797,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:5">
+      <c r="A20" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -2323,8 +2814,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:5">
+      <c r="A21" t="n">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -2340,8 +2831,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:5">
+      <c r="A22" t="n">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -2357,8 +2848,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:5">
+      <c r="A23" t="n">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -2374,8 +2865,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:5">
+      <c r="A24" t="n">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -2391,8 +2882,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:5">
+      <c r="A25" t="n">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -2408,8 +2899,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:5">
+      <c r="A26" t="n">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -2425,8 +2916,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:5">
+      <c r="A27" t="n">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2442,8 +2933,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:5">
+      <c r="A28" t="n">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -2459,8 +2950,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:5">
+      <c r="A29" t="n">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -2476,8 +2967,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:5">
+      <c r="A30" t="n">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -2493,8 +2984,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:5">
+      <c r="A31" t="n">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -2510,8 +3001,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:5">
+      <c r="A32" t="n">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -2527,8 +3018,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:5">
+      <c r="A33" t="n">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -2544,8 +3035,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:5">
+      <c r="A34" t="n">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -2561,8 +3052,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:5">
+      <c r="A35" t="n">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -2578,8 +3069,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:5">
+      <c r="A36" t="n">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -2595,8 +3086,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:5">
+      <c r="A37" t="n">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -2612,8 +3103,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:5">
+      <c r="A38" t="n">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -2629,8 +3120,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:5">
+      <c r="A39" t="n">
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -2646,8 +3137,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:5">
+      <c r="A40" t="n">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -2663,8 +3154,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:5">
+      <c r="A41" t="n">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -2680,8 +3171,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:5">
+      <c r="A42" t="n">
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -2697,8 +3188,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:5">
+      <c r="A43" t="n">
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -2714,8 +3205,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:5">
+      <c r="A44" t="n">
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -2731,8 +3222,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:5">
+      <c r="A45" t="n">
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -2748,8 +3239,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:5">
+      <c r="A46" t="n">
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -2765,8 +3256,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:5">
+      <c r="A47" t="n">
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -2782,8 +3273,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:5">
+      <c r="A48" t="n">
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -2799,8 +3290,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:5">
+      <c r="A49" t="n">
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -2816,8 +3307,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:5">
+      <c r="A50" t="n">
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -2833,8 +3324,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:5">
+      <c r="A51" t="n">
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -2850,8 +3341,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:5">
+      <c r="A52" t="n">
         <v>51</v>
       </c>
       <c r="B52" t="s">
@@ -2867,8 +3358,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:5">
+      <c r="A53" t="n">
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -2884,8 +3375,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:5">
+      <c r="A54" t="n">
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -2901,8 +3392,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:5">
+      <c r="A55" t="n">
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -2918,8 +3409,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:5">
+      <c r="A56" t="n">
         <v>55</v>
       </c>
       <c r="B56" t="s">
@@ -2935,8 +3426,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:5">
+      <c r="A57" t="n">
         <v>56</v>
       </c>
       <c r="B57" t="s">
@@ -2952,8 +3443,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:5">
+      <c r="A58" t="n">
         <v>57</v>
       </c>
       <c r="B58" t="s">
@@ -2969,8 +3460,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:5">
+      <c r="A59" t="n">
         <v>58</v>
       </c>
       <c r="B59" t="s">
@@ -2986,8 +3477,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:5">
+      <c r="A60" t="n">
         <v>59</v>
       </c>
       <c r="B60" t="s">
@@ -3003,8 +3494,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:5">
+      <c r="A61" t="n">
         <v>60</v>
       </c>
       <c r="B61" t="s">
@@ -3020,8 +3511,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:5">
+      <c r="A62" t="n">
         <v>61</v>
       </c>
       <c r="B62" t="s">
@@ -3037,8 +3528,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:5">
+      <c r="A63" t="n">
         <v>62</v>
       </c>
       <c r="B63" t="s">
@@ -3054,8 +3545,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" spans="1:5">
+      <c r="A64" t="n">
         <v>63</v>
       </c>
       <c r="B64" t="s">
@@ -3071,8 +3562,8 @@
         <v>252</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="1:5">
+      <c r="A65" t="n">
         <v>64</v>
       </c>
       <c r="B65" t="s">
@@ -3088,8 +3579,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" spans="1:5">
+      <c r="A66" t="n">
         <v>65</v>
       </c>
       <c r="B66" t="s">
@@ -3105,8 +3596,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" spans="1:5">
+      <c r="A67" t="n">
         <v>66</v>
       </c>
       <c r="B67" t="s">
@@ -3122,8 +3613,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68" spans="1:5">
+      <c r="A68" t="n">
         <v>67</v>
       </c>
       <c r="B68" t="s">
@@ -3139,8 +3630,8 @@
         <v>267</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69" spans="1:5">
+      <c r="A69" t="n">
         <v>68</v>
       </c>
       <c r="B69" t="s">
@@ -3156,8 +3647,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70" spans="1:5">
+      <c r="A70" t="n">
         <v>69</v>
       </c>
       <c r="B70" t="s">
@@ -3173,8 +3664,8 @@
         <v>275</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71" spans="1:5">
+      <c r="A71" t="n">
         <v>70</v>
       </c>
       <c r="B71" t="s">
@@ -3190,8 +3681,8 @@
         <v>279</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" spans="1:5">
+      <c r="A72" t="n">
         <v>71</v>
       </c>
       <c r="B72" t="s">
@@ -3207,8 +3698,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73" spans="1:5">
+      <c r="A73" t="n">
         <v>72</v>
       </c>
       <c r="B73" t="s">
@@ -3224,8 +3715,8 @@
         <v>286</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74" spans="1:5">
+      <c r="A74" t="n">
         <v>73</v>
       </c>
       <c r="B74" t="s">
@@ -3241,8 +3732,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" spans="1:5">
+      <c r="A75" t="n">
         <v>74</v>
       </c>
       <c r="B75" t="s">
@@ -3258,8 +3749,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" spans="1:5">
+      <c r="A76" t="n">
         <v>75</v>
       </c>
       <c r="B76" t="s">
@@ -3275,8 +3766,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77" spans="1:5">
+      <c r="A77" t="n">
         <v>76</v>
       </c>
       <c r="B77" t="s">
@@ -3292,8 +3783,8 @@
         <v>301</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78" spans="1:5">
+      <c r="A78" t="n">
         <v>77</v>
       </c>
       <c r="B78" t="s">
@@ -3309,8 +3800,8 @@
         <v>305</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="1:5">
+      <c r="A79" t="n">
         <v>78</v>
       </c>
       <c r="B79" t="s">
@@ -3326,8 +3817,8 @@
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80" spans="1:5">
+      <c r="A80" t="n">
         <v>79</v>
       </c>
       <c r="B80" t="s">
@@ -3343,8 +3834,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81" spans="1:5">
+      <c r="A81" t="n">
         <v>80</v>
       </c>
       <c r="B81" t="s">
@@ -3360,8 +3851,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82" spans="1:5">
+      <c r="A82" t="n">
         <v>81</v>
       </c>
       <c r="B82" t="s">
@@ -3377,8 +3868,8 @@
         <v>321</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83" spans="1:5">
+      <c r="A83" t="n">
         <v>82</v>
       </c>
       <c r="B83" t="s">
@@ -3394,8 +3885,8 @@
         <v>325</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="84" spans="1:5">
+      <c r="A84" t="n">
         <v>83</v>
       </c>
       <c r="B84" t="s">
@@ -3411,8 +3902,8 @@
         <v>329</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="85" spans="1:5">
+      <c r="A85" t="n">
         <v>84</v>
       </c>
       <c r="B85" t="s">
@@ -3428,8 +3919,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86" spans="1:5">
+      <c r="A86" t="n">
         <v>85</v>
       </c>
       <c r="B86" t="s">
@@ -3445,8 +3936,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87" spans="1:5">
+      <c r="A87" t="n">
         <v>86</v>
       </c>
       <c r="B87" t="s">
@@ -3462,8 +3953,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="88" spans="1:5">
+      <c r="A88" t="n">
         <v>87</v>
       </c>
       <c r="B88" t="s">
@@ -3479,8 +3970,8 @@
         <v>344</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89" spans="1:5">
+      <c r="A89" t="n">
         <v>88</v>
       </c>
       <c r="B89" t="s">
@@ -3496,8 +3987,8 @@
         <v>348</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="90" spans="1:5">
+      <c r="A90" t="n">
         <v>89</v>
       </c>
       <c r="B90" t="s">
@@ -3513,8 +4004,8 @@
         <v>352</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91" spans="1:5">
+      <c r="A91" t="n">
         <v>90</v>
       </c>
       <c r="B91" t="s">
@@ -3530,8 +4021,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92" spans="1:5">
+      <c r="A92" t="n">
         <v>91</v>
       </c>
       <c r="B92" t="s">
@@ -3547,8 +4038,8 @@
         <v>359</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93" spans="1:5">
+      <c r="A93" t="n">
         <v>92</v>
       </c>
       <c r="B93" t="s">
@@ -3564,8 +4055,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="94" spans="1:5">
+      <c r="A94" t="n">
         <v>93</v>
       </c>
       <c r="B94" t="s">
@@ -3581,8 +4072,8 @@
         <v>367</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="95" spans="1:5">
+      <c r="A95" t="n">
         <v>94</v>
       </c>
       <c r="B95" t="s">
@@ -3598,8 +4089,8 @@
         <v>371</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96" spans="1:5">
+      <c r="A96" t="n">
         <v>95</v>
       </c>
       <c r="B96" t="s">
@@ -3615,8 +4106,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="97" spans="1:5">
+      <c r="A97" t="n">
         <v>96</v>
       </c>
       <c r="B97" t="s">
@@ -3632,8 +4123,8 @@
         <v>379</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="98" spans="1:5">
+      <c r="A98" t="n">
         <v>97</v>
       </c>
       <c r="B98" t="s">
@@ -3649,8 +4140,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99" spans="1:5">
+      <c r="A99" t="n">
         <v>98</v>
       </c>
       <c r="B99" t="s">
@@ -3666,8 +4157,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100" spans="1:5">
+      <c r="A100" t="n">
         <v>99</v>
       </c>
       <c r="B100" t="s">
@@ -3683,8 +4174,8 @@
         <v>390</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="101" spans="1:5">
+      <c r="A101" t="n">
         <v>100</v>
       </c>
       <c r="B101" t="s">
@@ -3700,8 +4191,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="102" spans="1:5">
+      <c r="A102" t="n">
         <v>101</v>
       </c>
       <c r="B102" t="s">
@@ -3717,8 +4208,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="103" spans="1:5">
+      <c r="A103" t="n">
         <v>102</v>
       </c>
       <c r="B103" t="s">
@@ -3734,8 +4225,8 @@
         <v>402</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="104" spans="1:5">
+      <c r="A104" t="n">
         <v>103</v>
       </c>
       <c r="B104" t="s">
@@ -3751,8 +4242,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="105" spans="1:5">
+      <c r="A105" t="n">
         <v>104</v>
       </c>
       <c r="B105" t="s">
@@ -3768,66 +4259,66 @@
         <v>410</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="106" spans="1:5">
+      <c r="A106" t="n">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>411</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D106" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="E106" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="n">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="D107" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="E107" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="n">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="D108" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="E108" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="n">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="D109" t="s">
         <v>386</v>
@@ -3836,284 +4327,284 @@
         <v>410</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="110" spans="1:5">
+      <c r="A110" t="n">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="D110" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="E110" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="111" spans="1:5">
+      <c r="A111" t="n">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="D111" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="E111" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="n">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="D112" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="E112" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="n">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D113" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E113" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="114" spans="1:5">
+      <c r="A114" t="n">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="D114" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E114" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115" spans="1:5">
+      <c r="A115" t="n">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="C115" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D115" t="s">
+        <v>444</v>
+      </c>
+      <c r="E115" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>446</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D116" t="s">
+        <v>448</v>
+      </c>
+      <c r="E116" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>449</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D117" t="s">
+        <v>451</v>
+      </c>
+      <c r="E117" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>453</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D115" t="s">
-        <v>456</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="D118" t="s">
         <v>455</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>419</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D116" t="s">
-        <v>458</v>
-      </c>
-      <c r="E116" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>420</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D117" t="s">
-        <v>461</v>
-      </c>
-      <c r="E117" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>421</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D118" t="s">
-        <v>463</v>
       </c>
       <c r="E118" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="119" spans="1:5">
+      <c r="A119" t="n">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D119" t="s">
+        <v>458</v>
+      </c>
+      <c r="E119" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>460</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D120" t="s">
+        <v>462</v>
+      </c>
+      <c r="E120" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
         <v>464</v>
       </c>
-      <c r="D119" t="s">
-        <v>466</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="C121" s="1" t="s">
         <v>465</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>423</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D120" t="s">
-        <v>469</v>
-      </c>
-      <c r="E120" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>424</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="D121" t="s">
         <v>102</v>
       </c>
       <c r="E121" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>467</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D122" t="s">
+        <v>469</v>
+      </c>
+      <c r="E122" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>425</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D123" t="s">
+        <v>473</v>
+      </c>
+      <c r="E123" t="s">
         <v>474</v>
       </c>
-      <c r="E122" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>426</v>
-      </c>
-      <c r="C123" s="1" t="s">
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
         <v>475</v>
       </c>
-      <c r="D123" t="s">
+      <c r="C124" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D124" t="s">
         <v>477</v>
       </c>
-      <c r="E123" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>427</v>
-      </c>
-      <c r="C124" s="1" t="s">
+      <c r="E124" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
         <v>478</v>
       </c>
-      <c r="D124" t="s">
+      <c r="C125" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E124" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>428</v>
-      </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" t="s">
         <v>480</v>
-      </c>
-      <c r="D125" t="s">
-        <v>482</v>
       </c>
       <c r="E125" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="126" spans="1:5">
+      <c r="A126" t="n">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>483</v>
@@ -4125,8 +4616,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="127" spans="1:5">
+      <c r="A127" t="n">
         <v>126</v>
       </c>
       <c r="B127" t="s">
@@ -4135,7 +4626,7 @@
       <c r="C127" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="n">
         <v>0</v>
       </c>
       <c r="E127" t="s">
@@ -4143,11 +4634,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1719076901" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1719076901" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1719076901" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1719076901" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1719076901" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718869554" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1719076901" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
